--- a/Ornstein-Uhlenbeck-process.xlsx
+++ b/Ornstein-Uhlenbeck-process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rachel/Dropbox/Edinburgh MSc/Lloyds/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31E24C2-E798-B44F-AAA7-E0799570CDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C472E-2C9B-CE42-B1E6-5904BD5F7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="4580" windowWidth="17840" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -253,6 +253,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +323,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -348,769 +349,769 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12289180634520616</c:v>
+                  <c:v>9.7953370846639826E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12111202396586947</c:v>
+                  <c:v>0.13887280178874678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13869134839404243</c:v>
+                  <c:v>0.11187439844334604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15605969904372938</c:v>
+                  <c:v>7.1263006744947566E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1969220845486622</c:v>
+                  <c:v>9.4279589954753232E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20623692993378795</c:v>
+                  <c:v>0.1166883420958176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2174173832958122</c:v>
+                  <c:v>0.12481108202550303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20848002098213186</c:v>
+                  <c:v>0.13479346641975881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22373442297042845</c:v>
+                  <c:v>0.13083645571635263</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20292860092269546</c:v>
+                  <c:v>0.16229177658934307</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20956615359174849</c:v>
+                  <c:v>0.16780880786775648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20987745085850798</c:v>
+                  <c:v>0.16327846680019942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19393678372309209</c:v>
+                  <c:v>0.1869580026693084</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21802301872917068</c:v>
+                  <c:v>0.23387582956219202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21933564825920354</c:v>
+                  <c:v>0.24606816291290851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22644940334506725</c:v>
+                  <c:v>0.26342770935833104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22580999778041122</c:v>
+                  <c:v>0.30596941929517396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22367314226997737</c:v>
+                  <c:v>0.30773143395082819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22788806739884729</c:v>
+                  <c:v>0.32185388085935712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2275302715761845</c:v>
+                  <c:v>0.29757326767975489</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22578752930659493</c:v>
+                  <c:v>0.28246213534741876</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22172918305681436</c:v>
+                  <c:v>0.27395209793134662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20147233445185392</c:v>
+                  <c:v>0.28974091496535392</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19338986954047607</c:v>
+                  <c:v>0.25964523156104946</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20838645156533442</c:v>
+                  <c:v>0.2739739719347753</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.22226796799710785</c:v>
+                  <c:v>0.26108259941870537</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.23190941559659303</c:v>
+                  <c:v>0.27791997149540165</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24569530899229877</c:v>
+                  <c:v>0.24688723875709434</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.224073416207686</c:v>
+                  <c:v>0.26305857616739381</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.25015715394239801</c:v>
+                  <c:v>0.22136232064663852</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28007667751409204</c:v>
+                  <c:v>0.21476920870697536</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26396759749087118</c:v>
+                  <c:v>0.23313456709014949</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24947651277409691</c:v>
+                  <c:v>0.23720889370370457</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.24420808495264384</c:v>
+                  <c:v>0.25011050128155454</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.260979879000314</c:v>
+                  <c:v>0.23483097828149974</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26727807322324348</c:v>
+                  <c:v>0.24245717554265978</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26606680201317451</c:v>
+                  <c:v>0.21603643938454026</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25889404628834128</c:v>
+                  <c:v>0.20751003678392718</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.26389325530451768</c:v>
+                  <c:v>0.20534887879569688</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.27067979370687789</c:v>
+                  <c:v>0.20063512588517207</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26941403699801714</c:v>
+                  <c:v>0.20797974038374339</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26246844559024896</c:v>
+                  <c:v>0.1958821856708709</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.30641742860627558</c:v>
+                  <c:v>0.16975163948654462</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.32730501051742267</c:v>
+                  <c:v>0.1658630717210032</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.33059767337609969</c:v>
+                  <c:v>0.18832864498926022</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.31054272683397349</c:v>
+                  <c:v>0.17101013182962138</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30985525323625923</c:v>
+                  <c:v>0.18664373286986791</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.32698825814354232</c:v>
+                  <c:v>0.17412318025767923</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32093559079220368</c:v>
+                  <c:v>0.16418136432873137</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.31116057981109435</c:v>
+                  <c:v>0.1711804029857126</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3275454855090959</c:v>
+                  <c:v>0.16952806709798429</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.33587607079998677</c:v>
+                  <c:v>0.15633032623179113</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.31539725005016628</c:v>
+                  <c:v>0.1734450432236733</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3200346053973378</c:v>
+                  <c:v>0.21490489838478649</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.32523172113702936</c:v>
+                  <c:v>0.18384007501691652</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3171412998560495</c:v>
+                  <c:v>0.17350429795612374</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3045366417257227</c:v>
+                  <c:v>0.17901777678188191</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25452551321817374</c:v>
+                  <c:v>0.13417153598631679</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.23312997309412278</c:v>
+                  <c:v>0.13278089955652603</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22089253629906266</c:v>
+                  <c:v>0.11662871302092533</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.22382103625307337</c:v>
+                  <c:v>0.15104277295472032</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.23095051402222216</c:v>
+                  <c:v>0.14364020361415542</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.21644978944876658</c:v>
+                  <c:v>0.11764176200641349</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.21032344358530938</c:v>
+                  <c:v>0.11558898379230569</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.23708139873124393</c:v>
+                  <c:v>9.2711425664431413E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.22387045476299802</c:v>
+                  <c:v>9.8660074298893591E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.22187302525229485</c:v>
+                  <c:v>8.6576471947520939E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.20494455865413544</c:v>
+                  <c:v>8.0800105372590178E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.23397254342949075</c:v>
+                  <c:v>9.5772736215338633E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.24512550221302981</c:v>
+                  <c:v>6.5471714814530582E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.24773846062118005</c:v>
+                  <c:v>5.4945477589435986E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.26227134484889825</c:v>
+                  <c:v>9.2478672727532671E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.24620777580599346</c:v>
+                  <c:v>9.2307594005167803E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.25967903121919444</c:v>
+                  <c:v>0.11967158430404232</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.24328802984513384</c:v>
+                  <c:v>0.15086644807917057</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26300051936445795</c:v>
+                  <c:v>0.14294184479944719</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.2680360133634867</c:v>
+                  <c:v>0.1386337990775956</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.2586202089617835</c:v>
+                  <c:v>0.13686432314033631</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.28661383373196381</c:v>
+                  <c:v>0.14506306908731625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.26472492116310598</c:v>
+                  <c:v>0.14249284932005957</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.24424178279782457</c:v>
+                  <c:v>0.13814734863046585</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.25810977117590561</c:v>
+                  <c:v>0.13603039141813963</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.27564591675549771</c:v>
+                  <c:v>0.12176584983390756</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.24124326809087471</c:v>
+                  <c:v>0.12638035380000906</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.21757611170187044</c:v>
+                  <c:v>0.11576737033164873</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.2191620428025941</c:v>
+                  <c:v>0.11408861643841722</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.21344395157875695</c:v>
+                  <c:v>0.125518825730732</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.20536641141343598</c:v>
+                  <c:v>0.15480285439085742</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.21401353129140141</c:v>
+                  <c:v>0.16370109108509592</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.22949193461023645</c:v>
+                  <c:v>0.18050053492522833</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.23167954453544046</c:v>
+                  <c:v>0.19067787992427229</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.23174504174939936</c:v>
+                  <c:v>0.20725826251782348</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.25408372731355827</c:v>
+                  <c:v>0.21210775913235319</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.25410127017879419</c:v>
+                  <c:v>0.23029100123244842</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.2079998720139134</c:v>
+                  <c:v>0.1770396379235529</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.20051956633927859</c:v>
+                  <c:v>0.1441064611697758</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.23366036507703111</c:v>
+                  <c:v>0.16447281379870676</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.24123292025061685</c:v>
+                  <c:v>0.18855228648931255</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.20993244732493954</c:v>
+                  <c:v>0.20174944625291119</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.21051447899095838</c:v>
+                  <c:v>0.20081372057139385</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.19603698636730243</c:v>
+                  <c:v>0.19443109056368446</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.18456586996602012</c:v>
+                  <c:v>0.20063326160267067</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.17417029823711244</c:v>
+                  <c:v>0.22040672744485165</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16853216724951522</c:v>
+                  <c:v>0.23462300509668443</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.18368844010458146</c:v>
+                  <c:v>0.2521232858739913</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.17528265989057071</c:v>
+                  <c:v>0.2333647163634868</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.18583484230842839</c:v>
+                  <c:v>0.20480846195241639</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.16004414627079364</c:v>
+                  <c:v>0.22912443329825855</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.17531849867372287</c:v>
+                  <c:v>0.2366597470013436</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.17181108264140069</c:v>
+                  <c:v>0.23052322530982466</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.19153528861778457</c:v>
+                  <c:v>0.22020917485658426</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.18133902157158069</c:v>
+                  <c:v>0.23412003073684537</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.13183383379901897</c:v>
+                  <c:v>0.24322313266957016</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.12469542353869423</c:v>
+                  <c:v>0.23349418892766396</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.12771890228293742</c:v>
+                  <c:v>0.24753261400151982</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.14169576236867307</c:v>
+                  <c:v>0.23248818098551144</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.14479534400372951</c:v>
+                  <c:v>0.22349629597515477</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.19126521334024266</c:v>
+                  <c:v>0.20234486693908629</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.17904291964368202</c:v>
+                  <c:v>0.18528953357612027</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.18817316051550187</c:v>
+                  <c:v>0.17548082107604118</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.15951522045938116</c:v>
+                  <c:v>0.13656334856287364</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.12518665883046515</c:v>
+                  <c:v>0.15934098123537516</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.5821828180026408E-2</c:v>
+                  <c:v>0.1683708218256281</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.878081733933034E-2</c:v>
+                  <c:v>0.18856643730808387</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.10822362060120948</c:v>
+                  <c:v>0.16046897184709213</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.13448224777114409</c:v>
+                  <c:v>0.18111575364500432</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.12852885630646893</c:v>
+                  <c:v>0.22666814637919977</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.13023311425965461</c:v>
+                  <c:v>0.20744509413247011</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.14339860134356636</c:v>
+                  <c:v>0.22659965741258367</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.14637990228147921</c:v>
+                  <c:v>0.25656797696801353</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.15570230412028699</c:v>
+                  <c:v>0.25312687007320583</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.13130722550281879</c:v>
+                  <c:v>0.26251632747066633</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.13950528498148787</c:v>
+                  <c:v>0.28163416137693337</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.13964913380914443</c:v>
+                  <c:v>0.32247180644869006</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.12564231681139432</c:v>
+                  <c:v>0.31955275689159413</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.14127701125254299</c:v>
+                  <c:v>0.32459663761846047</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.15297312077562489</c:v>
+                  <c:v>0.35284817977116478</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.15864838929546796</c:v>
+                  <c:v>0.37665917021184259</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.15480618999160359</c:v>
+                  <c:v>0.40275260004277547</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.12603561415044404</c:v>
+                  <c:v>0.37919633565613148</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.13955632084199329</c:v>
+                  <c:v>0.40030503238062132</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.12633898851235109</c:v>
+                  <c:v>0.42030067134002541</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.13765878078080168</c:v>
+                  <c:v>0.43502125548862852</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.1610781249315123</c:v>
+                  <c:v>0.43727206073332903</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.13271077011457591</c:v>
+                  <c:v>0.43030662472267606</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.13342158036883991</c:v>
+                  <c:v>0.4283534204005422</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.14088905972125648</c:v>
+                  <c:v>0.44938925317388789</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.13454959793115437</c:v>
+                  <c:v>0.47956253508486779</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.16150022857566207</c:v>
+                  <c:v>0.51868669631147035</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.15032607553137198</c:v>
+                  <c:v>0.50216721746984672</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.1459646427494892</c:v>
+                  <c:v>0.48169321267920989</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.15897725061559217</c:v>
+                  <c:v>0.50248069168453791</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.12697135184635547</c:v>
+                  <c:v>0.48833623787133656</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.14381754483190318</c:v>
+                  <c:v>0.52336924479500824</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.18082141621996911</c:v>
+                  <c:v>0.53075510068060827</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.16197956175335143</c:v>
+                  <c:v>0.53645415926363693</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.1914209928597003</c:v>
+                  <c:v>0.522152533251247</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.20294703534003156</c:v>
+                  <c:v>0.51374299557402159</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.21728367173622937</c:v>
+                  <c:v>0.51082264136680233</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.1983049171092196</c:v>
+                  <c:v>0.51718142126647404</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.17137463651745297</c:v>
+                  <c:v>0.55759957101879953</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.14137743306756698</c:v>
+                  <c:v>0.55544394001482067</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.13885784203576523</c:v>
+                  <c:v>0.52367984534863721</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.17611968429841282</c:v>
+                  <c:v>0.50615051820660295</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.16604698023543651</c:v>
+                  <c:v>0.537586102499225</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.14918616277590274</c:v>
+                  <c:v>0.55054166012745098</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.16807739480852549</c:v>
+                  <c:v>0.54934299935776476</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.14645607407843705</c:v>
+                  <c:v>0.53856704340156336</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.14866813225938699</c:v>
+                  <c:v>0.55212125716989047</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.13319237176197468</c:v>
+                  <c:v>0.54024185419806137</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.11981387866620195</c:v>
+                  <c:v>0.53214598460036877</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.10862854434708075</c:v>
+                  <c:v>0.54373145438200754</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>9.39796657338762E-2</c:v>
+                  <c:v>0.52288137712815264</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>8.0284129047057035E-2</c:v>
+                  <c:v>0.50941927751583882</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.3293966160159371E-2</c:v>
+                  <c:v>0.49497798860142606</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>8.4612239586808261E-4</c:v>
+                  <c:v>0.4846248819165847</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>7.9030470048742571E-3</c:v>
+                  <c:v>0.46804073104937066</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.8384109173211977E-2</c:v>
+                  <c:v>0.45971166457595997</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.565214014333558E-2</c:v>
+                  <c:v>0.48101600555789109</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5.5516160068636411E-2</c:v>
+                  <c:v>0.47565819256307679</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>6.8135958696127055E-2</c:v>
+                  <c:v>0.47414295396806039</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.12785292862946912</c:v>
+                  <c:v>0.46089546640019002</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.13876212020721346</c:v>
+                  <c:v>0.48434952538912512</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.16153795088493222</c:v>
+                  <c:v>0.50693843296246222</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.16875035950458708</c:v>
+                  <c:v>0.46233317082991326</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.17236489867664231</c:v>
+                  <c:v>0.47126686952695668</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.16890208562864015</c:v>
+                  <c:v>0.44517565213345262</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.20128938229960799</c:v>
+                  <c:v>0.47778758640367852</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.22246998582080807</c:v>
+                  <c:v>0.48156774517802448</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.26131950231894935</c:v>
+                  <c:v>0.47541422210386974</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.25541488530274215</c:v>
+                  <c:v>0.50543569014957579</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.2577977241229728</c:v>
+                  <c:v>0.503229160580419</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.24715018398510022</c:v>
+                  <c:v>0.53009201612611556</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.26166474061356554</c:v>
+                  <c:v>0.55084784507741036</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.27021091223831473</c:v>
+                  <c:v>0.56780367527072761</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.25591090024523111</c:v>
+                  <c:v>0.61133539856800156</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.2483688651790795</c:v>
+                  <c:v>0.63243317983506742</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.25249673980463766</c:v>
+                  <c:v>0.6318646009042741</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.21812578975369576</c:v>
+                  <c:v>0.57171552724568131</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.19765784366017053</c:v>
+                  <c:v>0.57266216492208644</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.21201725877831934</c:v>
+                  <c:v>0.59674209771313391</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.20405774386427547</c:v>
+                  <c:v>0.62275091081338363</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.20736900830311647</c:v>
+                  <c:v>0.63893268869590836</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.18106485246136841</c:v>
+                  <c:v>0.67387487258356327</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.13713723913034306</c:v>
+                  <c:v>0.67392985875316536</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.12895592613419127</c:v>
+                  <c:v>0.66727714527751636</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.12647671258493745</c:v>
+                  <c:v>0.63804938363577723</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.12505202597636864</c:v>
+                  <c:v>0.64388129436517094</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.1338846749907949</c:v>
+                  <c:v>0.67096604288042572</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.15026512347603932</c:v>
+                  <c:v>0.67651167773643406</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.16006722307088078</c:v>
+                  <c:v>0.67826766856490817</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.16647161850116024</c:v>
+                  <c:v>0.65170941513007319</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.18526809098325756</c:v>
+                  <c:v>0.63316217450244539</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.20756746050422906</c:v>
+                  <c:v>0.61993050834533214</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.18336568057475591</c:v>
+                  <c:v>0.63571056583581609</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.20470867228791934</c:v>
+                  <c:v>0.61676018056283677</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.19834594374566708</c:v>
+                  <c:v>0.59296587686868885</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.23293166565478238</c:v>
+                  <c:v>0.61034601206783368</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.20454149388861231</c:v>
+                  <c:v>0.6039183879809793</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.21086530093866071</c:v>
+                  <c:v>0.61713808748371757</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.2008380918309188</c:v>
+                  <c:v>0.57147104934948934</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.19437410711509828</c:v>
+                  <c:v>0.57653739098735401</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.20060008490088957</c:v>
+                  <c:v>0.55894438581178785</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.1876334948571497</c:v>
+                  <c:v>0.5513362531136673</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.20098778646587703</c:v>
+                  <c:v>0.54293535184766795</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.22074087197846703</c:v>
+                  <c:v>0.5472450735073624</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.22011633566446381</c:v>
+                  <c:v>0.56680296014402831</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.20229448358431557</c:v>
+                  <c:v>0.56057752055782317</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.17943737639055277</c:v>
+                  <c:v>0.53706208819164269</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.19089595508405868</c:v>
+                  <c:v>0.52288879862232596</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.2100592292272575</c:v>
+                  <c:v>0.51264346968938501</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.24241744656740694</c:v>
+                  <c:v>0.50765186171279597</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.24261495352118179</c:v>
+                  <c:v>0.52484340136093954</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.23497566235213674</c:v>
+                  <c:v>0.50625965921730753</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.22126161152381479</c:v>
+                  <c:v>0.51155345325781554</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.25178097354254436</c:v>
+                  <c:v>0.50646893594441134</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.22776902455905032</c:v>
+                  <c:v>0.47985850610792302</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.21252133739795659</c:v>
+                  <c:v>0.45522201334884926</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.19889790455660683</c:v>
+                  <c:v>0.4827181344218866</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.2084219091894837</c:v>
+                  <c:v>0.48475327586803307</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.20503327283749942</c:v>
+                  <c:v>0.50042809249285491</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.21434595095001244</c:v>
+                  <c:v>0.46746018208238299</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.26432058240810141</c:v>
+                  <c:v>0.46121310180537162</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.25521987979495736</c:v>
+                  <c:v>0.41819385702935324</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.28249110675331018</c:v>
+                  <c:v>0.40816717375419942</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.27891023418310634</c:v>
+                  <c:v>0.40188497589082844</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.27923102762599106</c:v>
+                  <c:v>0.40420158029623388</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.28554698092043279</c:v>
+                  <c:v>0.38891032980724205</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.26519413162829669</c:v>
+                  <c:v>0.41071375194772103</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.26998314164377468</c:v>
+                  <c:v>0.4160039191062947</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.2658676338600558</c:v>
+                  <c:v>0.41638476246903977</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.28655155093216034</c:v>
+                  <c:v>0.43699679189935392</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.26779440254118142</c:v>
+                  <c:v>0.45266439146591925</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.27086251838767189</c:v>
+                  <c:v>0.43280553142570688</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.26064755312543109</c:v>
+                  <c:v>0.42689145721181543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1119,808 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-732A-A04C-9336-1135B7DE7B43}"/>
+              <c16:uniqueId val="{00000004-732A-A04C-9336-1135B7DE7B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$G$13:$G$268</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7953370846639826E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13887280178874678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11187439844334604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1263006744947566E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4279589954753232E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1166883420958176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12481108202550303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13479346641975881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13083645571635263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16229177658934307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16780880786775648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16327846680019942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1869580026693084</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23387582956219202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24606816291290851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26342770935833104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30596941929517396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30773143395082819</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32185388085935712</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29757326767975489</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28246213534741876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27395209793134662</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28974091496535392</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25964523156104946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2739739719347753</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26108259941870537</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27791997149540165</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24688723875709434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26305857616739381</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22136232064663852</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21476920870697536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23313456709014949</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23720889370370457</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25011050128155454</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23483097828149974</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24245717554265978</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21603643938454026</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20751003678392718</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20534887879569688</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20063512588517207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20797974038374339</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1958821856708709</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.16975163948654462</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1658630717210032</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.18832864498926022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17101013182962138</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18664373286986791</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17412318025767923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16418136432873137</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1711804029857126</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16952806709798429</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15633032623179113</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1734450432236733</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.21490489838478649</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18384007501691652</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17350429795612374</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17901777678188191</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13417153598631679</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.13278089955652603</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.11662871302092533</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.15104277295472032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14364020361415542</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.11764176200641349</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.11558898379230569</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.2711425664431413E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.8660074298893591E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.6576471947520939E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.0800105372590178E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.5772736215338633E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.5471714814530582E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.4945477589435986E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.2478672727532671E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.2307594005167803E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11967158430404232</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.15086644807917057</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14294184479944719</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1386337990775956</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.13686432314033631</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.14506306908731625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.14249284932005957</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.13814734863046585</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13603039141813963</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12176584983390756</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.12638035380000906</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.11576737033164873</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.11408861643841722</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.125518825730732</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.15480285439085742</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.16370109108509592</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.18050053492522833</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19067787992427229</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.20725826251782348</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.21210775913235319</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.23029100123244842</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1770396379235529</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1441064611697758</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.16447281379870676</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.18855228648931255</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.20174944625291119</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.20081372057139385</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.19443109056368446</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.20063326160267067</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.22040672744485165</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.23462300509668443</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.2521232858739913</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.2333647163634868</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.20480846195241639</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.22912443329825855</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.2366597470013436</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.23052322530982466</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.22020917485658426</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.23412003073684537</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.24322313266957016</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.23349418892766396</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.24753261400151982</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.23248818098551144</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.22349629597515477</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.20234486693908629</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.18528953357612027</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.17548082107604118</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.13656334856287364</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.15934098123537516</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.1683708218256281</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.18856643730808387</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.16046897184709213</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.18111575364500432</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.22666814637919977</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.20744509413247011</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.22659965741258367</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.25656797696801353</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.25312687007320583</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.26251632747066633</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.28163416137693337</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.32247180644869006</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.31955275689159413</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.32459663761846047</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.35284817977116478</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.37665917021184259</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.40275260004277547</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.37919633565613148</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.40030503238062132</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.42030067134002541</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.43502125548862852</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.43727206073332903</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.43030662472267606</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.4283534204005422</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.44938925317388789</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.47956253508486779</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.51868669631147035</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.50216721746984672</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.48169321267920989</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.50248069168453791</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.48833623787133656</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.52336924479500824</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.53075510068060827</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.53645415926363693</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.522152533251247</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.51374299557402159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.51082264136680233</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.51718142126647404</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.55759957101879953</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.55544394001482067</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.52367984534863721</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.50615051820660295</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.537586102499225</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.55054166012745098</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.54934299935776476</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.53856704340156336</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.55212125716989047</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.54024185419806137</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.53214598460036877</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.54373145438200754</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.52288137712815264</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.50941927751583882</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.49497798860142606</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.4846248819165847</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.46804073104937066</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.45971166457595997</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.48101600555789109</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.47565819256307679</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.47414295396806039</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.46089546640019002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.48434952538912512</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.50693843296246222</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.46233317082991326</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.47126686952695668</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.44517565213345262</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.47778758640367852</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.48156774517802448</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.47541422210386974</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.50543569014957579</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.503229160580419</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.53009201612611556</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.55084784507741036</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.56780367527072761</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.61133539856800156</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.63243317983506742</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.6318646009042741</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.57171552724568131</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.57266216492208644</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.59674209771313391</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.62275091081338363</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.63893268869590836</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.67387487258356327</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.67392985875316536</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.66727714527751636</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.63804938363577723</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.64388129436517094</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.67096604288042572</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.67651167773643406</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.67826766856490817</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.65170941513007319</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.63316217450244539</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.61993050834533214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.63571056583581609</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.61676018056283677</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.59296587686868885</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.61034601206783368</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.6039183879809793</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.61713808748371757</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.57147104934948934</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.57653739098735401</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.55894438581178785</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.5513362531136673</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.54293535184766795</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.5472450735073624</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.56680296014402831</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.56057752055782317</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.53706208819164269</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.52288879862232596</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.51264346968938501</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.50765186171279597</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.52484340136093954</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.50625965921730753</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.51155345325781554</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.50646893594441134</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.47985850610792302</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.45522201334884926</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.4827181344218866</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.48475327586803307</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.50042809249285491</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.46746018208238299</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.46121310180537162</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.41819385702935324</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.40816717375419942</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.40188497589082844</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.40420158029623388</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.38891032980724205</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.41071375194772103</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.4160039191062947</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.41638476246903977</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.43699679189935392</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.45266439146591925</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.43280553142570688</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.42689145721181543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-732A-A04C-9336-1135B7DE7B43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,6 +2098,1029 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="2A3B78"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Ornstein Uhlenbeck process</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2583333333333332E-2"/>
+          <c:y val="0.05"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dxt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$F$14:$F$269</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>-2.0466291533601734E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0919430942106969E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.699840334540074E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0611391698398475E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301658320980567E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2408752141064366E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1227399296854262E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9823843942557673E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.9570107034061783E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1455320872990453E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5170312784134099E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.5303410675570609E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3679535869108995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6917826892883617E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2192333350716482E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7359546445422546E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2541709936842927E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7620146556542367E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4122446908528907E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.4280613179602253E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5111132332336154E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8.5100374160721418E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5788817034007301E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.0095683404304484E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4328740373725845E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2891372516069909E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6837372076696288E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.1032732738307325E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6171337410299483E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.1696255520755288E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.5931119396631559E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8365358383174137E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0743266135550814E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2901607577849953E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.5279523000054814E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.6261972611600453E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.6420736158119507E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.5264026006130669E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.161157988230287E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.7137529105248134E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.3446144985713233E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.2097554712872501E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.6130546184326291E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.8885677655414157E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.246557326825702E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.7318513159638834E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5633601040246511E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.2520552612188688E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.9418159289478662E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9990386569812419E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.6523358877283158E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.319774086619317E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7114716991882162E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1459855161113182E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.1064823367869962E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.0335777060792769E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5134788257581845E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.4846240795565123E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.3906364297907531E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.6152186535600698E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.4414059933795003E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-7.402569340564903E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.5998441607741923E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.0527782141078017E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.287755812787428E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.9486486344621807E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.2083602351372652E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.7763665749307651E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4972630842748448E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.0301021400808051E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.0526237225094597E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.7533195138096685E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.7107872236486789E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.736399029887452E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1194863775128246E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-7.9246032797233874E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.3080457218515975E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.769475937259284E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.1987459469799583E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.5702197672566774E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.3455006895937263E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.1169572123262248E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.4264541584232075E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6145039661014998E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.0612983468360333E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.6787538932315066E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1430209292314787E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9284028660125427E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.898236694238516E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6799443840132416E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0177344999043951E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6580382593551182E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.8494966145297093E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8183242100095216E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.3251363308895516E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.2933176753777105E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.0366352628930981E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4079472690605775E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3197159763598651E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-9.3572568151735187E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-6.3826300077093993E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.2021710389862138E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.9773465842180982E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4216277651832795E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7500280777306868E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.8758569510504492E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.85562544110704E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.4315971345842138E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.5353137030850503E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-6.1365216915189296E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.0314050453240421E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.391085588026111E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.103101932724799E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-9.7289437419062017E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4038425073855847E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.5044433016008382E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-8.991885010356658E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.1151429036068481E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.7055333362966031E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-9.8087125000790726E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-3.8917472513167538E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2777632672501529E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.0298405902529532E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.0195615482455756E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.8097465460991729E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.0646781797912194E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5552392734195445E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.9223052246729645E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.9154563280113567E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.9968319555429886E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-3.4411068948076769E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.3894573974605267E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.9117833906267045E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.0837645071756704E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-2.9190495570959444E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.0438807268663515E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.8251542152704309E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.3810990440677787E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.6093429830932907E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.3556264386643988E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.1108696724489822E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.9995638959404101E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4720584148603135E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.2508052447005105E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-6.9654360106529848E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.9532043221338834E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.1035832773345677E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.017328191097992E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.9124161226602595E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.6519478841623605E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.047400479063681E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.0787479005327972E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.414445381320135E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.5033006923671679E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.3858558855999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.6990585830286192E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.4301626012389934E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-8.4095376772253989E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.9203542072192188E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3587798996716516E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.0418149752325466E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.1556310039788219E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-3.1764094666183441E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.7529327142034298E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.1435584292622096E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.2955557628225976E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.1986607696862152E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.0775955956201445E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.3554213768327095E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.1879402971829114E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-8.0958695976926023E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.158546978163876E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.0850077253854852E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.3462099612313804E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.4441288914412775E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.0353106684841334E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.6584150867214049E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-8.3290664734107078E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.1304340981931121E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-5.3578129948143281E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.5152385950164223E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-1.3247487567870385E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.3454058988935097E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.2588907573337043E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-4.4605262132548951E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.933698697043399E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.6091217393504087E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.2611934270225892E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.7801587743459667E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-6.1535230741547571E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.0021468045706021E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.2065295691567734E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.6862855545696614E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.0755828951294783E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.6955830193317242E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.3531723297273957E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.1097781267065831E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-5.6857893079327506E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-6.0149073658592796E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.4663767640516979E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.4079932791047524E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.6008813100249741E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.6181777882524714E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.4942183887654917E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.4986169602128137E-5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-6.6527134756490438E-3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-2.9227761641739163E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.831910729393713E-3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.7084748515254782E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5.54563485600833E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.7559908284740717E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-2.6558253434834946E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.8547240627627758E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-1.3231666157113277E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.578005749048398E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.8950385272979271E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-2.3794303694147898E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.7380135199144796E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-6.4276240868544176E-3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.3219699502738302E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-4.5667038134228226E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.0663416378646364E-3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.7593005175566185E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-7.6081326981205519E-3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-8.4009012659993151E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.3097216596944803E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.9557886636665883E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-6.225439586205102E-3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-2.3515432366180519E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.4173289569316704E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.0245328932940952E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-4.9916079765890539E-3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.7191539648143524E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.8583742143631992E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5.2937940405080137E-3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-5.0845173134042038E-3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-2.6610429836488297E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-2.4636492759073765E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.7496121073037342E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.0351414461464677E-3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.5674816624821827E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-3.2967910410471944E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-6.2470802770113725E-3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-4.301924477601838E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.0026683275153806E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-6.2821978633709691E-3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.3166044054054114E-3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.5291250488991843E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.1803422140478975E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.2901671585736708E-3</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.8084336274505308E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.0612029430314174E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.5667599566565341E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.9858860040212381E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-5.914074213891448E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E18-EE48-984D-F72C5B34B41C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="381387668"/>
+        <c:axId val="1604041701"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="381387668"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604041701"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1604041701"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>rt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381387668"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1337,7 +3162,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -1360,6 +3185,39 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686BBCC8-956A-8C4F-A993-64CE1D7494E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1571,8 +3429,8 @@
   </sheetPr>
   <dimension ref="A1:Y1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1787,7 +3645,10 @@
       <c r="C8" s="9">
         <v>0.02</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="24">
+        <f ca="1">AVERAGE(G13:G268)</f>
+        <v>0.34149007687683769</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1818,7 +3679,10 @@
       <c r="C9" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <f ca="1">_xlfn.VAR.S(G13:G268)</f>
+        <v>3.187778995050173E-2</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1980,7 +3844,7 @@
       </c>
       <c r="D14" s="19">
         <f t="shared" ref="D14:D268" ca="1" si="1">NORMSINV(RAND())</f>
-        <v>1.1449824349073667</v>
+        <v>-0.10193934002094984</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" ref="E14:E268" si="2">$C$10</f>
@@ -1988,11 +3852,11 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">$C$8*($C$9-G13)*$C$7+$C$10*D14</f>
-        <v>2.2891806345206159E-2</v>
+        <v>-2.0466291533601734E-3</v>
       </c>
       <c r="G14" s="22">
         <f ca="1">G13+F14</f>
-        <v>0.12289180634520616</v>
+        <v>9.7953370846639826E-2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2024,7 +3888,7 @@
       </c>
       <c r="D15" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8507229530186859E-2</v>
+        <v>2.0463556387557276</v>
       </c>
       <c r="E15" s="20">
         <f t="shared" si="2"/>
@@ -2032,11 +3896,11 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" ref="F14:F268" ca="1" si="3">$C$8*($C$9-G14)*$C$7+$C$10*D15</f>
-        <v>-1.7797823793366946E-3</v>
+        <v>4.0919430942106969E-2</v>
       </c>
       <c r="G15" s="22">
         <f ca="1">G14+F15</f>
-        <v>0.12111202396586947</v>
+        <v>0.13887280178874678</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2068,7 +3932,7 @@
       </c>
       <c r="D16" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87944113130655388</v>
+        <v>-1.3493756072630223</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="2"/>
@@ -2076,11 +3940,11 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.757932442817297E-2</v>
+        <v>-2.699840334540074E-2</v>
       </c>
       <c r="G16" s="22">
         <f ca="1">G15+F16</f>
-        <v>0.13869134839404243</v>
+        <v>0.11187439844334604</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2112,7 +3976,7 @@
       </c>
       <c r="D17" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86896138090942254</v>
+        <v>-2.0301309010044597</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="2"/>
@@ -2120,11 +3984,11 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7368350649686958E-2</v>
+        <v>-4.0611391698398475E-2</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" ref="G14:G268" ca="1" si="4">G16+F17</f>
-        <v>0.15605969904372938</v>
+        <v>7.1263006744947566E-2</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2156,7 +4020,7 @@
       </c>
       <c r="D18" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0437312348507337</v>
+        <v>1.1511085840461459</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="2"/>
@@ -2164,11 +4028,11 @@
       </c>
       <c r="F18" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0862385504932812E-2</v>
+        <v>2.301658320980567E-2</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1969220845486622</v>
+        <v>9.4279589954753232E-2</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2200,7 +4064,7 @@
       </c>
       <c r="D19" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46651447350941938</v>
+        <v>1.1208072917197074</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="2"/>
@@ -2208,11 +4072,11 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3148453851257477E-3</v>
+        <v>2.2408752141064366E-2</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20623692993378795</v>
+        <v>0.1166883420958176</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2244,7 +4108,7 @@
       </c>
       <c r="D20" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55983140115977614</v>
+        <v>0.40659455861013727</v>
       </c>
       <c r="E20" s="20">
         <f t="shared" si="2"/>
@@ -2252,11 +4116,11 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1180453362024246E-2</v>
+        <v>8.1227399296854262E-3</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2174173832958122</v>
+        <v>0.12481108202550303</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2288,7 +4152,7 @@
       </c>
       <c r="D21" s="19">
         <f ca="1">NORMSINV(RAND())</f>
-        <v>-0.44601553771030822</v>
+        <v>0.4996086357207315</v>
       </c>
       <c r="E21" s="20">
         <f t="shared" si="2"/>
@@ -2296,11 +4160,11 @@
       </c>
       <c r="F21" s="21">
         <f ca="1">$C$8*($C$9-G20)*$C$7+$C$10*D21</f>
-        <v>-8.9373623136803464E-3</v>
+        <v>9.9823843942557673E-3</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20848002098213186</v>
+        <v>0.13479346641975881</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2332,7 +4196,7 @@
       </c>
       <c r="D22" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76353762890887722</v>
+        <v>-0.1973219725568981</v>
       </c>
       <c r="E22" s="20">
         <f t="shared" si="2"/>
@@ -2340,11 +4204,11 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5254401988296593E-2</v>
+        <v>-3.9570107034061783E-3</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22373442297042845</v>
+        <v>0.13083645571635263</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2376,7 +4240,7 @@
       </c>
       <c r="D23" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0394137517083337</v>
+        <v>1.5732790885739005</v>
       </c>
       <c r="E23" s="20">
         <f t="shared" si="2"/>
@@ -2384,11 +4248,11 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0805822047732982E-2</v>
+        <v>3.1455320872990453E-2</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20292860092269546</v>
+        <v>0.16229177658934307</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2420,7 +4284,7 @@
       </c>
       <c r="D24" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33267339267195534</v>
+        <v>0.27648796304455026</v>
       </c>
       <c r="E24" s="20">
         <f t="shared" si="2"/>
@@ -2428,11 +4292,11 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6375526690530132E-3</v>
+        <v>5.5170312784134099E-3</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20956615359174849</v>
+        <v>0.16780880786775648</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2464,7 +4328,7 @@
       </c>
       <c r="D25" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6386652175589052E-2</v>
+        <v>-0.22585901883719517</v>
       </c>
       <c r="E25" s="20">
         <f t="shared" si="2"/>
@@ -2472,11 +4336,11 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1129726675948704E-4</v>
+        <v>-4.5303410675570609E-3</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20987745085850798</v>
+        <v>0.16327846680019942</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2508,7 +4372,7 @@
       </c>
       <c r="D26" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79621034715958428</v>
+        <v>1.1846170619527054</v>
       </c>
       <c r="E26" s="20">
         <f t="shared" si="2"/>
@@ -2516,11 +4380,11 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.5940667135415882E-2</v>
+        <v>2.3679535869108995E-2</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19393678372309209</v>
+        <v>0.1869580026693084</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2552,7 +4416,7 @@
       </c>
       <c r="D27" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2050722474950009</v>
+        <v>2.3466244740664135</v>
       </c>
       <c r="E27" s="20">
         <f t="shared" si="2"/>
@@ -2560,11 +4424,11 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.40862350060786E-2</v>
+        <v>4.6917826892883617E-2</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21802301872917068</v>
+        <v>0.23387582956219202</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2596,7 +4460,7 @@
       </c>
       <c r="D28" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6486429516267903E-2</v>
+        <v>0.61053378843606798</v>
       </c>
       <c r="E28" s="20">
         <f t="shared" si="2"/>
@@ -2604,11 +4468,11 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3126295300328742E-3</v>
+        <v>1.2192333350716482E-2</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21933564825920354</v>
+        <v>0.24606816291290851</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2640,7 +4504,7 @@
       </c>
       <c r="D29" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35654785487459367</v>
+        <v>0.86894225624333477</v>
       </c>
       <c r="E29" s="20">
         <f t="shared" si="2"/>
@@ -2648,11 +4512,11 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1137550858637009E-3</v>
+        <v>1.7359546445422546E-2</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22644940334506725</v>
+        <v>0.26342770935833104</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2684,7 +4548,7 @@
       </c>
       <c r="D30" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1082280572624858E-2</v>
+        <v>2.128118507467081</v>
       </c>
       <c r="E30" s="20">
         <f t="shared" si="2"/>
@@ -2692,11 +4556,11 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.3940556465603179E-4</v>
+        <v>4.2541709936842927E-2</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22580999778041122</v>
+        <v>0.30596941929517396</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2728,7 +4592,7 @@
       </c>
       <c r="D31" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10595728533431854</v>
+        <v>8.9300573642692907E-2</v>
       </c>
       <c r="E31" s="20">
         <f t="shared" si="2"/>
@@ -2736,11 +4600,11 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.1368555104338545E-3</v>
+        <v>1.7620146556542367E-3</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22367314226997737</v>
+        <v>0.30773143395082819</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2772,7 +4636,7 @@
       </c>
       <c r="D32" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21162336680533886</v>
+        <v>0.70732909614782113</v>
       </c>
       <c r="E32" s="20">
         <f t="shared" si="2"/>
@@ -2780,11 +4644,11 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.214925128869916E-3</v>
+        <v>1.4122446908528907E-2</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22788806739884729</v>
+        <v>0.32185388085935712</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2816,7 +4680,7 @@
       </c>
       <c r="D33" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6996151653143887E-2</v>
+        <v>-1.2127685261139975</v>
       </c>
       <c r="E33" s="20">
         <f t="shared" si="2"/>
@@ -2824,11 +4688,11 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.5779582266278734E-4</v>
+        <v>-2.4280613179602253E-2</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2275302715761845</v>
+        <v>0.29757326767975489</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2860,7 +4724,7 @@
       </c>
       <c r="D34" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6244877120355307E-2</v>
+        <v>-0.75438970184159304</v>
       </c>
       <c r="E34" s="20">
         <f t="shared" si="2"/>
@@ -2868,11 +4732,11 @@
       </c>
       <c r="F34" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.7427422695895521E-3</v>
+        <v>-1.5111132332336154E-2</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22578752930659493</v>
+        <v>0.28246213534741876</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2904,7 +4768,7 @@
       </c>
       <c r="D35" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20203191041331725</v>
+        <v>-0.42439421537087207</v>
       </c>
       <c r="E35" s="20">
         <f t="shared" si="2"/>
@@ -2912,11 +4776,11 @@
       </c>
       <c r="F35" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.0583462497805877E-3</v>
+        <v>-8.5100374160721418E-3</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22172918305681436</v>
+        <v>0.27395209793134662</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2948,7 +4812,7 @@
       </c>
       <c r="D36" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0119729432556428</v>
+        <v>0.79051513443735055</v>
       </c>
       <c r="E36" s="20">
         <f t="shared" si="2"/>
@@ -2956,11 +4820,11 @@
       </c>
       <c r="F36" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0256848604960447E-2</v>
+        <v>1.5788817034007301E-2</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20147233445185392</v>
+        <v>0.28974091496535392</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2992,7 +4856,7 @@
       </c>
       <c r="D37" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40333319719849253</v>
+        <v>-1.5036479705486934</v>
       </c>
       <c r="E37" s="20">
         <f t="shared" si="2"/>
@@ -3000,11 +4864,11 @@
       </c>
       <c r="F37" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.0824649113778388E-3</v>
+        <v>-3.0095683404304484E-2</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19338986954047607</v>
+        <v>0.25964523156104946</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3036,7 +4900,7 @@
       </c>
       <c r="D38" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75058745367248714</v>
+        <v>0.717455196064963</v>
       </c>
       <c r="E38" s="20">
         <f t="shared" si="2"/>
@@ -3044,11 +4908,11 @@
       </c>
       <c r="F38" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4996582024858332E-2</v>
+        <v>1.4328740373725845E-2</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20838645156533442</v>
+        <v>0.2739739719347753</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3080,7 +4944,7 @@
       </c>
       <c r="D39" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69489298414383038</v>
+        <v>-0.6434942572861041</v>
       </c>
       <c r="E39" s="20">
         <f t="shared" si="2"/>
@@ -3088,11 +4952,11 @@
       </c>
       <c r="F39" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3881516431773445E-2</v>
+        <v>-1.2891372516069909E-2</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22226796799710785</v>
+        <v>0.26108259941870537</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3124,7 +4988,7 @@
       </c>
       <c r="D40" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48294397984875737</v>
+        <v>0.84289241795018188</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" si="2"/>
@@ -3132,11 +4996,11 @@
       </c>
       <c r="F40" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6414475994851777E-3</v>
+        <v>1.6837372076696288E-2</v>
       </c>
       <c r="G40" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23190941559659303</v>
+        <v>0.27791997149540165</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3168,7 +5032,7 @@
       </c>
       <c r="D41" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69020407925821514</v>
+        <v>-1.550546793889894</v>
       </c>
       <c r="E41" s="20">
         <f t="shared" si="2"/>
@@ -3176,11 +5040,11 @@
       </c>
       <c r="F41" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3785893395705746E-2</v>
+        <v>-3.1032732738307325E-2</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24569530899229877</v>
+        <v>0.24688723875709434</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3212,7 +5076,7 @@
       </c>
       <c r="D42" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0801311674306691</v>
+        <v>0.8095350165493157</v>
       </c>
       <c r="E42" s="20">
         <f t="shared" si="2"/>
@@ -3220,11 +5084,11 @@
       </c>
       <c r="F42" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.1621892784612778E-2</v>
+        <v>1.6171337410299483E-2</v>
       </c>
       <c r="G42" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.224073416207686</v>
+        <v>0.26305857616739381</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3256,7 +5120,7 @@
       </c>
       <c r="D43" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3050655667991602</v>
+        <v>-2.0837812129939706</v>
       </c>
       <c r="E43" s="20">
         <f t="shared" si="2"/>
@@ -3264,11 +5128,11 @@
       </c>
       <c r="F43" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6083737734712013E-2</v>
+        <v>-4.1696255520755288E-2</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25015715394239801</v>
+        <v>0.22136232064663852</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3300,7 +5164,7 @@
       </c>
       <c r="D44" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4969571478158474</v>
+        <v>-0.32878754866689647</v>
       </c>
       <c r="E44" s="20">
         <f t="shared" si="2"/>
@@ -3308,11 +5172,11 @@
       </c>
       <c r="F44" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9919523571694015E-2</v>
+        <v>-6.5931119396631559E-3</v>
       </c>
       <c r="G44" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28007667751409204</v>
+        <v>0.21476920870697536</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3344,7 +5208,7 @@
       </c>
       <c r="D45" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80435570046490923</v>
+        <v>0.91911011213402827</v>
       </c>
       <c r="E45" s="20">
         <f t="shared" si="2"/>
@@ -3352,11 +5216,11 @@
       </c>
       <c r="F45" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6109080023220857E-2</v>
+        <v>1.8365358383174137E-2</v>
       </c>
       <c r="G45" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26396759749087118</v>
+        <v>0.23313456709014949</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3388,7 +5252,7 @@
       </c>
       <c r="D46" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.72351910800541563</v>
+        <v>0.2046305446663429</v>
       </c>
       <c r="E46" s="20">
         <f t="shared" si="2"/>
@@ -3396,11 +5260,11 @@
       </c>
       <c r="F46" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4491084716774263E-2</v>
+        <v>4.0743266135550814E-3</v>
       </c>
       <c r="G46" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24947651277409691</v>
+        <v>0.23720889370370457</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3432,7 +5296,7 @@
       </c>
       <c r="D47" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26244309102255847</v>
+        <v>0.6460105706325121</v>
       </c>
       <c r="E47" s="20">
         <f t="shared" si="2"/>
@@ -3440,11 +5304,11 @@
       </c>
       <c r="F47" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.2684278214530592E-3</v>
+        <v>1.2901607577849953E-2</v>
       </c>
       <c r="G47" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24420808495264384</v>
+        <v>0.25011050128155454</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3476,7 +5340,7 @@
       </c>
       <c r="D48" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83954734193234171</v>
+        <v>-0.7629953637232052</v>
       </c>
       <c r="E48" s="20">
         <f t="shared" si="2"/>
@@ -3484,11 +5348,11 @@
       </c>
       <c r="F48" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6771794047670156E-2</v>
+        <v>-1.5279523000054814E-2</v>
       </c>
       <c r="G48" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.260979879000314</v>
+        <v>0.23483097828149974</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3520,7 +5384,7 @@
       </c>
       <c r="D49" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31593312243667143</v>
+        <v>0.38223072963949833</v>
       </c>
       <c r="E49" s="20">
         <f t="shared" si="2"/>
@@ -3528,11 +5392,11 @@
       </c>
       <c r="F49" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.298194222929483E-3</v>
+        <v>7.6261972611600453E-3</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26727807322324348</v>
+        <v>0.24245717554265978</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3564,7 +5428,7 @@
       </c>
       <c r="D50" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9515450412377331E-2</v>
+        <v>-1.320086034668553</v>
       </c>
       <c r="E50" s="20">
         <f t="shared" si="2"/>
@@ -3572,11 +5436,11 @@
       </c>
       <c r="F50" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2112712100689775E-3</v>
+        <v>-2.6420736158119507E-2</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26606680201317451</v>
+        <v>0.21603643938454026</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3608,7 +5472,7 @@
       </c>
       <c r="D51" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35759442623376597</v>
+        <v>-0.42547296752326297</v>
       </c>
       <c r="E51" s="20">
         <f t="shared" si="2"/>
@@ -3616,11 +5480,11 @@
       </c>
       <c r="F51" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.1727557248332154E-3</v>
+        <v>-8.5264026006130669E-3</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25889404628834128</v>
+        <v>0.20751003678392718</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3652,7 +5516,7 @@
       </c>
       <c r="D52" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25097568236289186</v>
+        <v>-0.10724417377706759</v>
       </c>
       <c r="E52" s="20">
         <f t="shared" si="2"/>
@@ -3660,11 +5524,11 @@
       </c>
       <c r="F52" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9992090161763989E-3</v>
+        <v>-2.161157988230287E-3</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26389325530451768</v>
+        <v>0.20534887879569688</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3696,7 +5560,7 @@
       </c>
       <c r="D53" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34036175641332167</v>
+        <v>-0.23488239502115951</v>
       </c>
       <c r="E53" s="20">
         <f t="shared" si="2"/>
@@ -3704,11 +5568,11 @@
       </c>
       <c r="F53" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7865384023601972E-3</v>
+        <v>-4.7137529105248134E-3</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27067979370687789</v>
+        <v>0.20063512588517207</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3740,7 +5604,7 @@
       </c>
       <c r="D54" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2226385271637152E-2</v>
+        <v>0.36801749012811585</v>
       </c>
       <c r="E54" s="20">
         <f t="shared" si="2"/>
@@ -3748,11 +5612,11 @@
       </c>
       <c r="F54" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2657567088607336E-3</v>
+        <v>7.3446144985713233E-3</v>
       </c>
       <c r="G54" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26941403699801714</v>
+        <v>0.20797974038374339</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3784,7 +5648,7 @@
       </c>
       <c r="D55" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.34622308396880941</v>
+        <v>-0.60406216803427704</v>
       </c>
       <c r="E55" s="20">
         <f t="shared" si="2"/>
@@ -3792,11 +5656,11 @@
       </c>
       <c r="F55" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.9455914077681891E-3</v>
+        <v>-1.2097554712872501E-2</v>
       </c>
       <c r="G55" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26246844559024896</v>
+        <v>0.1958821856708709</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3828,7 +5692,7 @@
       </c>
       <c r="D56" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1984783996075663</v>
+        <v>-1.3057591829979973</v>
       </c>
       <c r="E56" s="20">
         <f t="shared" si="2"/>
@@ -3836,11 +5700,11 @@
       </c>
       <c r="F56" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3948983016026601E-2</v>
+        <v>-2.6130546184326291E-2</v>
       </c>
       <c r="G56" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30641742860627558</v>
+        <v>0.16975163948654462</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3872,7 +5736,7 @@
       </c>
       <c r="D57" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0455806933165952</v>
+        <v>-0.19376273478888825</v>
       </c>
       <c r="E57" s="20">
         <f t="shared" si="2"/>
@@ -3880,11 +5744,11 @@
       </c>
       <c r="F57" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0887581911147098E-2</v>
+        <v>-3.8885677655414157E-3</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32730501051742267</v>
+        <v>0.1658630717210032</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3916,7 +5780,7 @@
       </c>
       <c r="D58" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1659166527790166</v>
+        <v>1.1239290676156783</v>
       </c>
       <c r="E58" s="20">
         <f t="shared" si="2"/>
@@ -3924,11 +5788,11 @@
       </c>
       <c r="F58" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.292662858677005E-3</v>
+        <v>2.246557326825702E-2</v>
       </c>
       <c r="G58" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33059767337609969</v>
+        <v>0.18832864498926022</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3960,7 +5824,7 @@
       </c>
       <c r="D59" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.001450904857776</v>
+        <v>-0.86518715349178776</v>
       </c>
       <c r="E59" s="20">
         <f t="shared" si="2"/>
@@ -3968,11 +5832,11 @@
       </c>
       <c r="F59" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0054946542126192E-2</v>
+        <v>-1.7318513159638834E-2</v>
       </c>
       <c r="G59" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31054272683397349</v>
+        <v>0.17101013182962138</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4004,7 +5868,7 @@
       </c>
       <c r="D60" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3155904486364532E-2</v>
+        <v>0.78235064076459859</v>
       </c>
       <c r="E60" s="20">
         <f t="shared" si="2"/>
@@ -4012,11 +5876,11 @@
       </c>
       <c r="F60" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.87473597714269E-4</v>
+        <v>1.5633601040246511E-2</v>
       </c>
       <c r="G60" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30985525323625923</v>
+        <v>0.18664373286986791</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4048,7 +5912,7 @@
       </c>
       <c r="D61" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85786532478860966</v>
+        <v>-0.62529573361778779</v>
       </c>
       <c r="E61" s="20">
         <f t="shared" si="2"/>
@@ -4056,11 +5920,11 @@
       </c>
       <c r="F61" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7133004907283075E-2</v>
+        <v>-1.2520552612188688E-2</v>
       </c>
       <c r="G61" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32698825814354232</v>
+        <v>0.17412318025767923</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4092,7 +5956,7 @@
       </c>
       <c r="D62" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30135109988793657</v>
+        <v>-0.49640799966206905</v>
       </c>
       <c r="E62" s="20">
         <f t="shared" si="2"/>
@@ -4100,11 +5964,11 @@
       </c>
       <c r="F62" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.0526673513386165E-3</v>
+        <v>-9.9418159289478662E-3</v>
       </c>
       <c r="G62" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32093559079220368</v>
+        <v>0.16418136432873137</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4136,7 +6000,7 @@
       </c>
       <c r="D63" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48749201732686903</v>
+        <v>0.35059574212093947</v>
       </c>
       <c r="E63" s="20">
         <f t="shared" si="2"/>
@@ -4144,11 +6008,11 @@
       </c>
       <c r="F63" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.7750109811093194E-3</v>
+        <v>6.9990386569812419E-3</v>
       </c>
       <c r="G63" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31116057981109435</v>
+        <v>0.1711804029857126</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4180,7 +6044,7 @@
       </c>
       <c r="D64" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82046548325227919</v>
+        <v>-8.1945537904118876E-2</v>
       </c>
       <c r="E64" s="20">
         <f t="shared" si="2"/>
@@ -4188,11 +6052,11 @@
       </c>
       <c r="F64" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6384905698001578E-2</v>
+        <v>-1.6523358877283158E-3</v>
       </c>
       <c r="G64" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3275454855090959</v>
+        <v>0.16952806709798429</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4224,7 +6088,7 @@
       </c>
       <c r="D65" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41781371742889345</v>
+        <v>-0.65922226657594096</v>
       </c>
       <c r="E65" s="20">
         <f t="shared" si="2"/>
@@ -4232,11 +6096,11 @@
       </c>
       <c r="F65" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3305852908908823E-3</v>
+        <v>-1.319774086619317E-2</v>
       </c>
       <c r="G65" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33587607079998677</v>
+        <v>0.15633032623179113</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4268,7 +6132,7 @@
       </c>
       <c r="D66" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0226239156447507</v>
+        <v>0.8563488704812916</v>
       </c>
       <c r="E66" s="20">
         <f t="shared" si="2"/>
@@ -4276,11 +6140,11 @@
       </c>
       <c r="F66" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0478820749820503E-2</v>
+        <v>1.7114716991882162E-2</v>
       </c>
       <c r="G66" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31539725005016628</v>
+        <v>0.1734450432236733</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4312,7 +6176,7 @@
       </c>
       <c r="D67" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23310458010387047</v>
+        <v>2.0736728954800658</v>
       </c>
       <c r="E67" s="20">
         <f t="shared" si="2"/>
@@ -4320,11 +6184,11 @@
       </c>
       <c r="F67" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6373553471715147E-3</v>
+        <v>4.1459855161113182E-2</v>
       </c>
       <c r="G67" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3200346053973378</v>
+        <v>0.21490489838478649</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4356,7 +6220,7 @@
       </c>
       <c r="D68" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26111078543711574</v>
+        <v>-1.552398443301793</v>
       </c>
       <c r="E68" s="20">
         <f t="shared" si="2"/>
@@ -4364,11 +6228,11 @@
       </c>
       <c r="F68" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1971157396915437E-3</v>
+        <v>-3.1064823367869962E-2</v>
       </c>
       <c r="G68" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32523172113702936</v>
+        <v>0.18384007501691652</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4400,7 +6264,7 @@
       </c>
       <c r="D69" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40324568475041572</v>
+        <v>-0.51606795078467016</v>
       </c>
       <c r="E69" s="20">
         <f t="shared" si="2"/>
@@ -4408,11 +6272,11 @@
       </c>
       <c r="F69" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.0904212809798457E-3</v>
+        <v>-1.0335777060792769E-2</v>
       </c>
       <c r="G69" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3171412998560495</v>
+        <v>0.17350429795612374</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4444,7 +6308,7 @@
       </c>
       <c r="D70" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.62898925436004016</v>
+        <v>0.27635431108381558</v>
       </c>
       <c r="E70" s="20">
         <f t="shared" si="2"/>
@@ -4452,11 +6316,11 @@
       </c>
       <c r="F70" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2604658130326768E-2</v>
+        <v>5.5134788257581845E-3</v>
       </c>
       <c r="G70" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3045366417257227</v>
+        <v>0.17901777678188191</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4488,7 +6352,7 @@
       </c>
       <c r="D71" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4993622032530323</v>
+        <v>-2.2416100484967583</v>
       </c>
       <c r="E71" s="20">
         <f t="shared" si="2"/>
@@ -4496,11 +6360,11 @@
       </c>
       <c r="F71" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.0011128507548935E-2</v>
+        <v>-4.4846240795565123E-2</v>
       </c>
       <c r="G71" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25452551321817374</v>
+        <v>0.13417153598631679</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4532,7 +6396,7 @@
       </c>
       <c r="D72" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0687789061507114</v>
+        <v>-6.9005697819003078E-2</v>
       </c>
       <c r="E72" s="20">
         <f t="shared" si="2"/>
@@ -4540,11 +6404,11 @@
       </c>
       <c r="F72" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.1395540124050948E-2</v>
+        <v>-1.3906364297907531E-3</v>
       </c>
       <c r="G72" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23312997309412278</v>
+        <v>0.13278089955652603</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4576,7 +6440,7 @@
       </c>
       <c r="D73" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6109576437800881</v>
+        <v>-0.80708865658569562</v>
       </c>
       <c r="E73" s="20">
         <f t="shared" si="2"/>
@@ -4584,11 +6448,11 @@
       </c>
       <c r="F73" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2237436795060124E-2</v>
+        <v>-1.6152186535600698E-2</v>
       </c>
       <c r="G73" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22089253629906266</v>
+        <v>0.11662871302092533</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4620,7 +6484,7 @@
       </c>
       <c r="D74" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14729120372523738</v>
+        <v>1.7211603249761067</v>
       </c>
       <c r="E74" s="20">
         <f t="shared" si="2"/>
@@ -4628,11 +6492,11 @@
       </c>
       <c r="F74" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9284999540107035E-3</v>
+        <v>3.4414059933795003E-2</v>
       </c>
       <c r="G74" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22382103625307337</v>
+        <v>0.15104277295472032</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4664,7 +6528,7 @@
       </c>
       <c r="D75" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3573515787956873</v>
+        <v>-0.36953618164410901</v>
       </c>
       <c r="E75" s="20">
         <f t="shared" si="2"/>
@@ -4672,11 +6536,11 @@
       </c>
       <c r="F75" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1294777691487997E-3</v>
+        <v>-7.402569340564903E-3</v>
       </c>
       <c r="G75" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23095051402222216</v>
+        <v>0.14364020361415542</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4708,7 +6572,7 @@
       </c>
       <c r="D76" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.72413057959818183</v>
+        <v>-1.2993588246866483</v>
       </c>
       <c r="E76" s="20">
         <f t="shared" si="2"/>
@@ -4716,11 +6580,11 @@
       </c>
       <c r="F76" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4500724573455576E-2</v>
+        <v>-2.5998441607741923E-2</v>
       </c>
       <c r="G76" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21644978944876658</v>
+        <v>0.11764176200641349</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4752,7 +6616,7 @@
       </c>
       <c r="D77" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30546850968482514</v>
+        <v>-0.10217760967791394</v>
       </c>
       <c r="E77" s="20">
         <f t="shared" si="2"/>
@@ -4760,11 +6624,11 @@
       </c>
       <c r="F77" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.1263458634571904E-3</v>
+        <v>-2.0527782141078017E-3</v>
       </c>
       <c r="G77" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21032344358530938</v>
+        <v>0.11558898379230569</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4796,7 +6660,7 @@
       </c>
       <c r="D78" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3387225158990226</v>
+        <v>-1.1434246554768814</v>
       </c>
       <c r="E78" s="20">
         <f t="shared" si="2"/>
@@ -4804,11 +6668,11 @@
       </c>
       <c r="F78" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6757955145934546E-2</v>
+        <v>-2.287755812787428E-2</v>
       </c>
       <c r="G78" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23708139873124393</v>
+        <v>9.2711425664431413E-2</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4840,7 +6704,7 @@
       </c>
       <c r="D79" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65961750665256458</v>
+        <v>0.29779596672571462</v>
       </c>
       <c r="E79" s="20">
         <f t="shared" si="2"/>
@@ -4848,11 +6712,11 @@
       </c>
       <c r="F79" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3210943968245899E-2</v>
+        <v>5.9486486344621807E-3</v>
       </c>
       <c r="G79" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22387045476299802</v>
+        <v>9.8660074298893591E-2</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4884,7 +6748,7 @@
       </c>
       <c r="D80" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.8993591398833181E-2</v>
+        <v>-0.60379325453216637</v>
       </c>
       <c r="E80" s="20">
         <f t="shared" si="2"/>
@@ -4892,11 +6756,11 @@
       </c>
       <c r="F80" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9974295107031731E-3</v>
+        <v>-1.2083602351372652E-2</v>
       </c>
       <c r="G80" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22187302525229485</v>
+        <v>8.6576471947520939E-2</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4928,7 +6792,7 @@
       </c>
       <c r="D81" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84555327882854936</v>
+        <v>-0.28847885238595972</v>
       </c>
       <c r="E81" s="20">
         <f t="shared" si="2"/>
@@ -4936,11 +6800,11 @@
       </c>
       <c r="F81" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6928466598159404E-2</v>
+        <v>-5.7763665749307651E-3</v>
       </c>
       <c r="G81" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20494455865413544</v>
+        <v>8.0800105372590178E-2</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4972,7 +6836,7 @@
       </c>
       <c r="D82" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4522029037036637</v>
+        <v>0.74894836608005999</v>
       </c>
       <c r="E82" s="20">
         <f t="shared" si="2"/>
@@ -4980,11 +6844,11 @@
       </c>
       <c r="F82" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9027984775355301E-2</v>
+        <v>1.4972630842748448E-2</v>
       </c>
       <c r="G82" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23397254342949075</v>
+        <v>9.5772736215338633E-2</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5016,7 +6880,7 @@
       </c>
       <c r="D83" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55856543934726521</v>
+        <v>-1.5146755298983816</v>
       </c>
       <c r="E83" s="20">
         <f t="shared" si="2"/>
@@ -5024,11 +6888,11 @@
       </c>
       <c r="F83" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.115295878353907E-2</v>
+        <v>-3.0301021400808051E-2</v>
       </c>
       <c r="G83" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24512550221302981</v>
+        <v>6.5471714814530582E-2</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5060,7 +6924,7 @@
       </c>
       <c r="D84" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1316091576710923</v>
+        <v>-0.52605514864761405</v>
       </c>
       <c r="E84" s="20">
         <f t="shared" si="2"/>
@@ -5068,11 +6932,11 @@
       </c>
       <c r="F84" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6129584081502361E-3</v>
+        <v>-1.0526237225094597E-2</v>
       </c>
       <c r="G84" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24773846062118005</v>
+        <v>5.4945477589435986E-2</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5104,7 +6968,7 @@
       </c>
       <c r="D85" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72761569554521</v>
+        <v>1.8768751901502831</v>
       </c>
       <c r="E85" s="20">
         <f t="shared" si="2"/>
@@ -5112,11 +6976,11 @@
       </c>
       <c r="F85" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4532884227718226E-2</v>
+        <v>3.7533195138096685E-2</v>
       </c>
       <c r="G85" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26227134484889825</v>
+        <v>9.2478672727532671E-2</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5148,7 +7012,7 @@
       </c>
       <c r="D86" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80214997628308671</v>
+        <v>-8.1913138722530705E-3</v>
       </c>
       <c r="E86" s="20">
         <f t="shared" si="2"/>
@@ -5156,11 +7020,11 @@
       </c>
       <c r="F86" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6063569042904787E-2</v>
+        <v>-1.7107872236486789E-4</v>
       </c>
       <c r="G86" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24620777580599346</v>
+        <v>9.2307594005167803E-2</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5192,7 +7056,7 @@
       </c>
       <c r="D87" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67452825213379897</v>
+        <v>1.3685614662927659</v>
       </c>
       <c r="E87" s="20">
         <f t="shared" si="2"/>
@@ -5200,11 +7064,11 @@
       </c>
       <c r="F87" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3471255413201001E-2</v>
+        <v>2.736399029887452E-2</v>
       </c>
       <c r="G87" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25967903121919444</v>
+        <v>0.11967158430404232</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5236,7 +7100,7 @@
       </c>
       <c r="D88" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81853175877667994</v>
+        <v>1.5602124498713301</v>
       </c>
       <c r="E88" s="20">
         <f t="shared" si="2"/>
@@ -5244,11 +7108,11 @@
       </c>
       <c r="F88" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6391001374060594E-2</v>
+        <v>3.1194863775128246E-2</v>
       </c>
       <c r="G88" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24328802984513384</v>
+        <v>0.15086644807917057</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5280,7 +7144,7 @@
       </c>
       <c r="D89" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98657850745579534</v>
+        <v>-0.39563857007213338</v>
       </c>
       <c r="E89" s="20">
         <f t="shared" si="2"/>
@@ -5288,11 +7152,11 @@
       </c>
       <c r="F89" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9712489519324132E-2</v>
+        <v>-7.9246032797233874E-3</v>
       </c>
       <c r="G89" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26300051936445795</v>
+        <v>0.14294184479944719</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5324,7 +7188,7 @@
       </c>
       <c r="D90" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25280603532149565</v>
+        <v>-0.2148417690541507</v>
       </c>
       <c r="E90" s="20">
         <f t="shared" si="2"/>
@@ -5332,11 +7196,11 @@
       </c>
       <c r="F90" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0354939990287784E-3</v>
+        <v>-4.3080457218515975E-3</v>
       </c>
       <c r="G90" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2680360133634867</v>
+        <v>0.1386337990775956</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5368,7 +7232,7 @@
       </c>
       <c r="D91" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46973913767981174</v>
+        <v>-8.7930174121483434E-2</v>
       </c>
       <c r="E91" s="20">
         <f t="shared" si="2"/>
@@ -5376,11 +7240,11 @@
       </c>
       <c r="F91" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.4158044017031758E-3</v>
+        <v>-1.769475937259284E-3</v>
       </c>
       <c r="G91" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2586202089617835</v>
+        <v>0.13686432314033631</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5412,7 +7276,7 @@
       </c>
       <c r="D92" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4006953961912183</v>
+        <v>0.4104739809691561</v>
       </c>
       <c r="E92" s="20">
         <f t="shared" si="2"/>
@@ -5420,11 +7284,11 @@
       </c>
       <c r="F92" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7993624770180303E-2</v>
+        <v>8.1987459469799583E-3</v>
       </c>
       <c r="G92" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28661383373196381</v>
+        <v>0.14506306908731625</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5456,7 +7320,7 @@
       </c>
       <c r="D93" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.093321691840021</v>
+        <v>-0.12794215279778556</v>
       </c>
       <c r="E93" s="20">
         <f t="shared" si="2"/>
@@ -5464,11 +7328,11 @@
       </c>
       <c r="F93" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.1888912568857832E-2</v>
+        <v>-2.5702197672566774E-3</v>
       </c>
       <c r="G93" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26472492116310598</v>
+        <v>0.14249284932005957</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5500,7 +7364,7 @@
       </c>
       <c r="D94" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.023118820534018</v>
+        <v>-0.21671627820784295</v>
       </c>
       <c r="E94" s="20">
         <f t="shared" si="2"/>
@@ -5508,11 +7372,11 @@
       </c>
       <c r="F94" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.048313836528139E-2</v>
+        <v>-4.3455006895937263E-3</v>
       </c>
       <c r="G94" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24424178279782457</v>
+        <v>0.13814734863046585</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5544,7 +7408,7 @@
       </c>
       <c r="D95" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69435719060129841</v>
+        <v>-0.10530614552364273</v>
       </c>
       <c r="E95" s="20">
         <f t="shared" si="2"/>
@@ -5552,11 +7416,11 @@
       </c>
       <c r="F95" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3867988378081042E-2</v>
+        <v>-2.1169572123262248E-3</v>
       </c>
       <c r="G95" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25810977117590561</v>
+        <v>0.13603039141813963</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5588,7 +7452,7 @@
       </c>
       <c r="D96" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87781943494499992</v>
+        <v>-0.71269366591192473</v>
       </c>
       <c r="E96" s="20">
         <f t="shared" si="2"/>
@@ -5596,11 +7460,11 @@
       </c>
       <c r="F96" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7536145579592086E-2</v>
+        <v>-1.4264541584232075E-2</v>
       </c>
       <c r="G96" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27564591675549771</v>
+        <v>0.12176584983390756</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5632,7 +7496,7 @@
       </c>
       <c r="D97" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7190515080674029</v>
+        <v>0.23120267222599228</v>
       </c>
       <c r="E97" s="20">
         <f t="shared" si="2"/>
@@ -5640,11 +7504,11 @@
       </c>
       <c r="F97" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4402648664623003E-2</v>
+        <v>4.6145039661014998E-3</v>
       </c>
       <c r="G97" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24124326809087471</v>
+        <v>0.12638035380000906</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5676,7 +7540,7 @@
       </c>
       <c r="D98" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1824118066341707</v>
+        <v>-0.53015360340311468</v>
       </c>
       <c r="E98" s="20">
         <f t="shared" si="2"/>
@@ -5684,11 +7548,11 @@
       </c>
       <c r="F98" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.3667156389004265E-2</v>
+        <v>-1.0612983468360333E-2</v>
       </c>
       <c r="G98" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21757611170187044</v>
+        <v>0.11576737033164873</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -5720,7 +7584,7 @@
       </c>
       <c r="D99" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0149755474229381E-2</v>
+        <v>-8.3483744189686501E-2</v>
       </c>
       <c r="E99" s="20">
         <f t="shared" si="2"/>
@@ -5728,11 +7592,11 @@
       </c>
       <c r="F99" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5859311007236567E-3</v>
+        <v>-1.6787538932315066E-3</v>
       </c>
       <c r="G99" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2191620428025941</v>
+        <v>0.11408861643841722</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -5764,7 +7628,7 @@
       </c>
       <c r="D100" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28504514141616139</v>
+        <v>0.57195783173902726</v>
       </c>
       <c r="E100" s="20">
         <f t="shared" si="2"/>
@@ -5772,11 +7636,11 @@
       </c>
       <c r="F100" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.7180912238371569E-3</v>
+        <v>1.1430209292314787E-2</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21344395157875695</v>
+        <v>0.125518825730732</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5808,7 +7672,7 @@
       </c>
       <c r="D101" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40304001237750509</v>
+        <v>1.4646936244797251</v>
       </c>
       <c r="E101" s="20">
         <f t="shared" si="2"/>
@@ -5816,11 +7680,11 @@
       </c>
       <c r="F101" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.0775401653209854E-3</v>
+        <v>2.9284028660125427E-2</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20536641141343598</v>
+        <v>0.15480285439085742</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -5852,7 +7716,7 @@
       </c>
       <c r="D102" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43316131315871681</v>
+        <v>0.4455188655134586</v>
       </c>
       <c r="E102" s="20">
         <f t="shared" si="2"/>
@@ -5860,11 +7724,11 @@
       </c>
       <c r="F102" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6471198779654399E-3</v>
+        <v>8.898236694238516E-3</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21401353129140141</v>
+        <v>0.16370109108509592</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5896,7 +7760,7 @@
       </c>
       <c r="D103" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77475939547622874</v>
+        <v>0.8406141178540133</v>
       </c>
       <c r="E103" s="20">
         <f t="shared" si="2"/>
@@ -5904,11 +7768,11 @@
       </c>
       <c r="F103" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5478403318835054E-2</v>
+        <v>1.6799443840132416E-2</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22949193461023645</v>
+        <v>0.18050053492522833</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -5940,7 +7804,7 @@
       </c>
       <c r="D104" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11028042541553475</v>
+        <v>0.5095750559715122</v>
       </c>
       <c r="E104" s="20">
         <f t="shared" si="2"/>
@@ -5948,11 +7812,11 @@
       </c>
       <c r="F104" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1876099252040098E-3</v>
+        <v>1.0177344999043951E-2</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23167954453544046</v>
+        <v>0.19067787992427229</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -5984,7 +7848,7 @@
       </c>
       <c r="D105" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.18336871573112E-3</v>
+        <v>0.82976684685373259</v>
       </c>
       <c r="E105" s="20">
         <f t="shared" si="2"/>
@@ -5992,11 +7856,11 @@
       </c>
       <c r="F105" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5497213958901581E-5</v>
+        <v>1.6580382593551182E-2</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23174504174939936</v>
+        <v>0.20725826251782348</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6028,7 +7892,7 @@
       </c>
       <c r="D106" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1178430430775514</v>
+        <v>0.24328756901086909</v>
       </c>
       <c r="E106" s="20">
         <f t="shared" si="2"/>
@@ -6036,11 +7900,11 @@
       </c>
       <c r="F106" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2338685564158918E-2</v>
+        <v>4.8494966145297093E-3</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25408372731355827</v>
+        <v>0.21210775913235319</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6072,7 +7936,7 @@
       </c>
       <c r="D107" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8735108198891387E-3</v>
+        <v>0.90999386092292678</v>
       </c>
       <c r="E107" s="20">
         <f t="shared" si="2"/>
@@ -6080,11 +7944,11 @@
       </c>
       <c r="F107" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.754286523593507E-5</v>
+        <v>1.8183242100095216E-2</v>
       </c>
       <c r="G107" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25410127017879419</v>
+        <v>0.23029100123244842</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6116,7 +7980,7 @@
       </c>
       <c r="D108" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3040734718903964</v>
+        <v>-2.6616651026948444</v>
       </c>
       <c r="E108" s="20">
         <f t="shared" si="2"/>
@@ -6124,11 +7988,11 @@
       </c>
       <c r="F108" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.6101398164880777E-2</v>
+        <v>-5.3251363308895516E-2</v>
       </c>
       <c r="G108" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2079998720139134</v>
+        <v>0.1770396379235529</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6160,7 +8024,7 @@
       </c>
       <c r="D109" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37319963717482391</v>
+        <v>-1.6459646038146454</v>
       </c>
       <c r="E109" s="20">
         <f t="shared" si="2"/>
@@ -6168,11 +8032,11 @@
       </c>
       <c r="F109" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.4803056746348242E-3</v>
+        <v>-3.2933176753777105E-2</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20051956633927859</v>
+        <v>0.1441064611697758</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6204,7 +8068,7 @@
       </c>
       <c r="D110" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6578262489124866</v>
+        <v>1.0188827156079991</v>
       </c>
       <c r="E110" s="20">
         <f t="shared" si="2"/>
@@ -6212,11 +8076,11 @@
       </c>
       <c r="F110" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3140798737752532E-2</v>
+        <v>2.0366352628930981E-2</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23366036507703111</v>
+        <v>0.16447281379870676</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -6248,7 +8112,7 @@
       </c>
       <c r="D111" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37954403462076564</v>
+        <v>1.204618586741264</v>
       </c>
       <c r="E111" s="20">
         <f t="shared" si="2"/>
@@ -6256,11 +8120,11 @@
       </c>
       <c r="F111" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.572555173585742E-3</v>
+        <v>2.4079472690605775E-2</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24123292025061685</v>
+        <v>0.18855228648931255</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6292,7 +8156,7 @@
       </c>
       <c r="D112" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5640776740475886</v>
+        <v>0.66059736969557692</v>
       </c>
       <c r="E112" s="20">
         <f t="shared" si="2"/>
@@ -6300,11 +8164,11 @@
       </c>
       <c r="F112" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.1300472925677315E-2</v>
+        <v>1.3197159763598651E-2</v>
       </c>
       <c r="G112" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20993244732493954</v>
+        <v>0.20174944625291119</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6336,7 +8200,7 @@
       </c>
       <c r="D113" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9924808584568731E-2</v>
+        <v>-4.5995148992522841E-2</v>
       </c>
       <c r="E113" s="20">
         <f t="shared" si="2"/>
@@ -6344,11 +8208,11 @@
       </c>
       <c r="F113" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8203166601883036E-4</v>
+        <v>-9.3572568151735187E-4</v>
       </c>
       <c r="G113" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21051447899095838</v>
+        <v>0.20081372057139385</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6380,7 +8244,7 @@
       </c>
       <c r="D114" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.72304912342204886</v>
+        <v>-0.31834403481460177</v>
       </c>
       <c r="E114" s="20">
         <f t="shared" si="2"/>
@@ -6388,11 +8252,11 @@
       </c>
       <c r="F114" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4477492623655955E-2</v>
+        <v>-6.3826300077093993E-3</v>
       </c>
       <c r="G114" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19603698636730243</v>
+        <v>0.19443109056368446</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6424,7 +8288,7 @@
       </c>
       <c r="D115" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57278708678424406</v>
+        <v>0.31087098759858001</v>
       </c>
       <c r="E115" s="20">
         <f t="shared" si="2"/>
@@ -6432,11 +8296,11 @@
       </c>
       <c r="F115" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.1471116401282316E-2</v>
+        <v>6.2021710389862138E-3</v>
       </c>
       <c r="G115" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18456586996602012</v>
+        <v>0.20063326160267067</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6468,7 +8332,7 @@
       </c>
       <c r="D116" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51905483793571339</v>
+        <v>0.98946004999768711</v>
       </c>
       <c r="E116" s="20">
         <f t="shared" si="2"/>
@@ -6476,11 +8340,11 @@
       </c>
       <c r="F116" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0395571728907682E-2</v>
+        <v>1.9773465842180982E-2</v>
       </c>
       <c r="G116" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17417029823711244</v>
+        <v>0.22040672744485165</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6512,7 +8376,7 @@
       </c>
       <c r="D117" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28122356781814728</v>
+        <v>0.71167818348358036</v>
       </c>
       <c r="E117" s="20">
         <f t="shared" si="2"/>
@@ -6520,11 +8384,11 @@
       </c>
       <c r="F117" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.6381309875972296E-3</v>
+        <v>1.4216277651832795E-2</v>
       </c>
       <c r="G117" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16853216724951522</v>
+        <v>0.23462300509668443</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6556,7 +8420,7 @@
       </c>
       <c r="D118" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75847451399742705</v>
+        <v>0.87593408986572252</v>
       </c>
       <c r="E118" s="20">
         <f t="shared" si="2"/>
@@ -6564,11 +8428,11 @@
       </c>
       <c r="F118" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5156272855066226E-2</v>
+        <v>1.7500280777306868E-2</v>
       </c>
       <c r="G118" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18368844010458146</v>
+        <v>0.2521232858739913</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6600,7 +8464,7 @@
       </c>
       <c r="D119" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.41956870309228456</v>
+        <v>-0.93693979597277766</v>
       </c>
       <c r="E119" s="20">
         <f t="shared" si="2"/>
@@ -6608,11 +8472,11 @@
       </c>
       <c r="F119" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.4057802140107569E-3</v>
+        <v>-1.8758569510504492E-2</v>
       </c>
       <c r="G119" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17528265989057071</v>
+        <v>0.2333647163634868</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6644,7 +8508,7 @@
       </c>
       <c r="D120" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5282964646571614</v>
+        <v>-1.4268976040187613</v>
       </c>
       <c r="E120" s="20">
         <f t="shared" si="2"/>
@@ -6652,11 +8516,11 @@
       </c>
       <c r="F120" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0552182417857693E-2</v>
+        <v>-2.85562544110704E-2</v>
       </c>
       <c r="G120" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18583484230842839</v>
+        <v>0.20480846195241639</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6688,7 +8552,7 @@
       </c>
       <c r="D121" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2888060770099405</v>
+        <v>1.2166016985154497</v>
       </c>
       <c r="E121" s="20">
         <f t="shared" si="2"/>
@@ -6696,11 +8560,11 @@
       </c>
       <c r="F121" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.5790696037634769E-2</v>
+        <v>2.4315971345842138E-2</v>
       </c>
       <c r="G121" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16004414627079364</v>
+        <v>0.22912443329825855</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -6732,7 +8596,7 @@
       </c>
       <c r="D122" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76434520503379888</v>
+        <v>0.37766417312797118</v>
       </c>
       <c r="E122" s="20">
         <f t="shared" si="2"/>
@@ -6740,11 +8604,11 @@
       </c>
       <c r="F122" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5274352402929249E-2</v>
+        <v>7.5353137030850503E-3</v>
       </c>
       <c r="G122" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17531849867372287</v>
+        <v>0.2366597470013436</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6776,7 +8640,7 @@
       </c>
       <c r="D123" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17468331730758549</v>
+        <v>-0.3058980463524118</v>
       </c>
       <c r="E123" s="20">
         <f t="shared" si="2"/>
@@ -6784,11 +8648,11 @@
       </c>
       <c r="F123" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.507416032322198E-3</v>
+        <v>-6.1365216915189296E-3</v>
       </c>
       <c r="G123" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17181108264140069</v>
+        <v>0.23052322530982466</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -6820,7 +8684,7 @@
       </c>
       <c r="D124" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98688402855504309</v>
+        <v>-0.51479854922943347</v>
       </c>
       <c r="E124" s="20">
         <f t="shared" si="2"/>
@@ -6828,11 +8692,11 @@
       </c>
       <c r="F124" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9724205976383889E-2</v>
+        <v>-1.0314050453240421E-2</v>
       </c>
       <c r="G124" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19153528861778457</v>
+        <v>0.22020917485658426</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -6864,7 +8728,7 @@
       </c>
       <c r="D125" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50906227274698768</v>
+        <v>0.69640632018896365</v>
       </c>
       <c r="E125" s="20">
         <f t="shared" si="2"/>
@@ -6872,11 +8736,11 @@
       </c>
       <c r="F125" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0196267046203895E-2</v>
+        <v>1.391085588026111E-2</v>
       </c>
       <c r="G125" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18133902157158069</v>
+        <v>0.23412003073684537</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6908,7 +8772,7 @@
       </c>
       <c r="D126" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4745482944258441</v>
+        <v>0.4560731751881491</v>
       </c>
       <c r="E126" s="20">
         <f t="shared" si="2"/>
@@ -6916,11 +8780,11 @@
       </c>
       <c r="F126" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.9505187772561715E-2</v>
+        <v>9.103101932724799E-3</v>
       </c>
       <c r="G126" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13183383379901897</v>
+        <v>0.24322313266957016</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -6952,7 +8816,7 @@
       </c>
       <c r="D127" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35640355680526103</v>
+        <v>-0.48549341010444907</v>
       </c>
       <c r="E127" s="20">
         <f t="shared" si="2"/>
@@ -6960,11 +8824,11 @@
       </c>
       <c r="F127" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.1384102603247518E-3</v>
+        <v>-9.7289437419062017E-3</v>
       </c>
       <c r="G127" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12469542353869423</v>
+        <v>0.23349418892766396</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -6996,7 +8860,7 @@
       </c>
       <c r="D128" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15166289965740987</v>
+        <v>0.70283687796309691</v>
       </c>
       <c r="E128" s="20">
         <f t="shared" si="2"/>
@@ -7004,11 +8868,11 @@
       </c>
       <c r="F128" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0234787442432018E-3</v>
+        <v>1.4038425073855847E-2</v>
       </c>
       <c r="G128" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12771890228293742</v>
+        <v>0.24753261400151982</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7040,7 +8904,7 @@
       </c>
       <c r="D129" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69934382351142099</v>
+        <v>-0.75125097388276596</v>
       </c>
       <c r="E129" s="20">
         <f t="shared" si="2"/>
@@ -7048,11 +8912,11 @@
       </c>
       <c r="F129" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3976860085735641E-2</v>
+        <v>-1.5044433016008382E-2</v>
       </c>
       <c r="G129" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14169576236867307</v>
+        <v>0.23248818098551144</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7084,7 +8948,7 @@
       </c>
       <c r="D130" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1555347121934833</v>
+        <v>-0.44868257137671325</v>
       </c>
       <c r="E130" s="20">
         <f t="shared" si="2"/>
@@ -7092,11 +8956,11 @@
       </c>
       <c r="F130" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0995816350564368E-3</v>
+        <v>-8.991885010356658E-3</v>
       </c>
       <c r="G130" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14479534400372951</v>
+        <v>0.22349629597515477</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7128,7 +8992,7 @@
       </c>
       <c r="D131" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3240612524884177</v>
+        <v>-1.0566950349564626</v>
       </c>
       <c r="E131" s="20">
         <f t="shared" si="2"/>
@@ -7136,11 +9000,11 @@
       </c>
       <c r="F131" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6469869336513162E-2</v>
+        <v>-2.1151429036068481E-2</v>
       </c>
       <c r="G131" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19126521334024266</v>
+        <v>0.20234486693908629</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7172,7 +9036,7 @@
       </c>
       <c r="D132" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61036466438355963</v>
+        <v>-0.85197319808187377</v>
       </c>
       <c r="E132" s="20">
         <f t="shared" si="2"/>
@@ -7180,11 +9044,11 @@
       </c>
       <c r="F132" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2222293696560624E-2</v>
+        <v>-1.7055333362966031E-2</v>
       </c>
       <c r="G132" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17904291964368202</v>
+        <v>0.18528953357612027</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7216,7 +9080,7 @@
       </c>
       <c r="D133" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45721413347194806</v>
+        <v>-0.48970903859777282</v>
       </c>
       <c r="E133" s="20">
         <f t="shared" si="2"/>
@@ -7224,11 +9088,11 @@
       </c>
       <c r="F133" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1302408718198485E-3</v>
+        <v>-9.8087125000790726E-3</v>
       </c>
       <c r="G133" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18817316051550187</v>
+        <v>0.17548082107604118</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7260,7 +9124,7 @@
       </c>
       <c r="D134" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4321591080589158</v>
+        <v>-1.9451855047914119</v>
       </c>
       <c r="E134" s="20">
         <f t="shared" si="2"/>
@@ -7268,11 +9132,11 @@
       </c>
       <c r="F134" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8657940056120709E-2</v>
+        <v>-3.8917472513167538E-2</v>
       </c>
       <c r="G134" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15951522045938116</v>
+        <v>0.13656334856287364</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -7304,7 +9168,7 @@
       </c>
       <c r="D135" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7158025707773317</v>
+        <v>1.1394171369527739</v>
       </c>
       <c r="E135" s="20">
         <f t="shared" si="2"/>
@@ -7312,11 +9176,11 @@
       </c>
       <c r="F135" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4328561628915996E-2</v>
+        <v>2.2777632672501529E-2</v>
       </c>
       <c r="G135" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12518665883046515</v>
+        <v>0.15934098123537516</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7348,7 +9212,7 @@
       </c>
       <c r="D136" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4677506436637786</v>
+        <v>0.45211685689004127</v>
       </c>
       <c r="E136" s="20">
         <f t="shared" si="2"/>
@@ -7356,11 +9220,11 @@
       </c>
       <c r="F136" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.9364830650438746E-2</v>
+        <v>9.0298405902529532E-3</v>
       </c>
       <c r="G136" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5821828180026408E-2</v>
+        <v>0.1683708218256281</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -7392,7 +9256,7 @@
       </c>
       <c r="D137" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3516748093752739</v>
+        <v>1.0104410126397509</v>
       </c>
       <c r="E137" s="20">
         <f t="shared" si="2"/>
@@ -7400,11 +9264,11 @@
       </c>
       <c r="F137" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.0410108406960686E-3</v>
+        <v>2.0195615482455756E-2</v>
       </c>
       <c r="G137" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>8.878081733933034E-2</v>
+        <v>0.18856643730808387</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7436,7 +9300,7 @@
       </c>
       <c r="D138" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97248828394626796</v>
+        <v>-1.4041338360405351</v>
       </c>
       <c r="E138" s="20">
         <f t="shared" si="2"/>
@@ -7444,11 +9308,11 @@
       </c>
       <c r="F138" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9442803261879138E-2</v>
+        <v>-2.8097465460991729E-2</v>
       </c>
       <c r="G138" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10822362060120948</v>
+        <v>0.16046897184709213</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7480,7 +9344,7 @@
       </c>
       <c r="D139" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3133557256363435</v>
+        <v>1.0329683407655983</v>
       </c>
       <c r="E139" s="20">
         <f t="shared" si="2"/>
@@ -7488,11 +9352,11 @@
       </c>
       <c r="F139" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6258627169934618E-2</v>
+        <v>2.0646781797912194E-2</v>
       </c>
       <c r="G139" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13448224777114409</v>
+        <v>0.18111575364500432</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7524,7 +9388,7 @@
       </c>
       <c r="D140" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29714223108563542</v>
+        <v>2.2783298553515174</v>
       </c>
       <c r="E140" s="20">
         <f t="shared" si="2"/>
@@ -7532,11 +9396,11 @@
       </c>
       <c r="F140" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.9533914646751514E-3</v>
+        <v>4.5552392734195445E-2</v>
       </c>
       <c r="G140" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12852885630646893</v>
+        <v>0.22666814637919977</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7568,7 +9432,7 @@
       </c>
       <c r="D141" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.571689317421162E-2</v>
+        <v>-0.96026375686048526</v>
       </c>
       <c r="E141" s="20">
         <f t="shared" si="2"/>
@@ -7576,11 +9440,11 @@
       </c>
       <c r="F141" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7042579531856858E-3</v>
+        <v>-1.9223052246729645E-2</v>
       </c>
       <c r="G141" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13023311425965461</v>
+        <v>0.20744509413247011</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7612,7 +9476,7 @@
       </c>
       <c r="D142" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65878503307503711</v>
+        <v>0.95854163496306055</v>
       </c>
       <c r="E142" s="20">
         <f t="shared" si="2"/>
@@ -7620,11 +9484,11 @@
       </c>
       <c r="F142" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3165487083911749E-2</v>
+        <v>1.9154563280113567E-2</v>
       </c>
       <c r="G142" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14339860134356636</v>
+        <v>0.22659965741258367</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7656,7 +9520,7 @@
       </c>
       <c r="D143" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14962735513620581</v>
+        <v>1.4993045646633083</v>
       </c>
       <c r="E143" s="20">
         <f t="shared" si="2"/>
@@ -7664,11 +9528,11 @@
       </c>
       <c r="F143" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9813009379128564E-3</v>
+        <v>2.9968319555429886E-2</v>
       </c>
       <c r="G143" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14637990228147921</v>
+        <v>0.25656797696801353</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7700,7 +9564,7 @@
       </c>
       <c r="D144" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46669409155717867</v>
+        <v>-0.17104923502678379</v>
       </c>
       <c r="E144" s="20">
         <f t="shared" si="2"/>
@@ -7708,11 +9572,11 @@
       </c>
       <c r="F144" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3224018388077708E-3</v>
+        <v>-3.4411068948076769E-3</v>
       </c>
       <c r="G144" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15570230412028699</v>
+        <v>0.25312687007320583</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7744,7 +9608,7 @@
       </c>
       <c r="D145" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2191433728180359</v>
+        <v>0.47046548504978392</v>
       </c>
       <c r="E145" s="20">
         <f t="shared" si="2"/>
@@ -7752,11 +9616,11 @@
       </c>
       <c r="F145" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4395078617468192E-2</v>
+        <v>9.3894573974605267E-3</v>
       </c>
       <c r="G145" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13130722550281879</v>
+        <v>0.26251632747066633</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -7788,7 +9652,7 @@
       </c>
       <c r="D146" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41041786501385796</v>
+        <v>0.95692113189166861</v>
       </c>
       <c r="E146" s="20">
         <f t="shared" si="2"/>
@@ -7796,11 +9660,11 @@
       </c>
       <c r="F146" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1980594786690963E-3</v>
+        <v>1.9117833906267045E-2</v>
       </c>
       <c r="G146" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13950528498148787</v>
+        <v>0.28163416137693337</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -7832,7 +9696,7 @@
       </c>
       <c r="D147" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7394817160890078E-3</v>
+        <v>2.0429866620638233</v>
       </c>
       <c r="E147" s="20">
         <f t="shared" si="2"/>
@@ -7840,11 +9704,11 @@
       </c>
       <c r="F147" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4384882765656543E-4</v>
+        <v>4.0837645071756704E-2</v>
       </c>
       <c r="G147" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13964913380914443</v>
+        <v>0.32247180644869006</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -7876,7 +9740,7 @@
       </c>
       <c r="D148" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.69979324544119526</v>
+        <v>-0.14468792175107686</v>
       </c>
       <c r="E148" s="20">
         <f t="shared" si="2"/>
@@ -7884,11 +9748,11 @@
       </c>
       <c r="F148" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4006816997750113E-2</v>
+        <v>-2.9190495570959444E-3</v>
       </c>
       <c r="G148" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12564231681139432</v>
+        <v>0.31955275689159413</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -7920,7 +9784,7 @@
       </c>
       <c r="D149" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78222739780963479</v>
+        <v>0.25344714519387285</v>
       </c>
       <c r="E149" s="20">
         <f t="shared" si="2"/>
@@ -7928,11 +9792,11 @@
       </c>
       <c r="F149" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5634694441148664E-2</v>
+        <v>5.0438807268663515E-3</v>
       </c>
       <c r="G149" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14127701125254299</v>
+        <v>0.32459663761846047</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -7964,7 +9828,7 @@
       </c>
       <c r="D150" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58535946443351616</v>
+        <v>1.4138499964101898</v>
       </c>
       <c r="E150" s="20">
         <f t="shared" si="2"/>
@@ -7972,11 +9836,11 @@
       </c>
       <c r="F150" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1696109523081888E-2</v>
+        <v>2.8251542152704309E-2</v>
       </c>
       <c r="G150" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15297312077562489</v>
+        <v>0.35284817977116478</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8008,7 +9872,7 @@
       </c>
       <c r="D151" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28436328136774425</v>
+        <v>1.1919332011702468</v>
       </c>
       <c r="E151" s="20">
         <f t="shared" si="2"/>
@@ -8016,11 +9880,11 @@
       </c>
       <c r="F151" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.675268519843072E-3</v>
+        <v>2.3810990440677787E-2</v>
       </c>
       <c r="G151" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15864838929546796</v>
+        <v>0.37665917021184259</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8052,7 +9916,7 @@
       </c>
       <c r="D152" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19148785386264766</v>
+        <v>1.3061485471161034</v>
       </c>
       <c r="E152" s="20">
         <f t="shared" si="2"/>
@@ -8060,11 +9924,11 @@
       </c>
       <c r="F152" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.8421993038643626E-3</v>
+        <v>2.6093429830932907E-2</v>
       </c>
       <c r="G152" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15480618999160359</v>
+        <v>0.40275260004277547</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -8096,7 +9960,7 @@
       </c>
       <c r="D153" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.437921748175657</v>
+        <v>-1.1762338365869336</v>
       </c>
       <c r="E153" s="20">
         <f t="shared" si="2"/>
@@ -8104,11 +9968,11 @@
       </c>
       <c r="F153" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8770575841159541E-2</v>
+        <v>-2.3556264386643988E-2</v>
       </c>
       <c r="G153" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12603561415044404</v>
+        <v>0.37919633565613148</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8140,7 +10004,7 @@
       </c>
       <c r="D154" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67652955267217041</v>
+        <v>1.0569218414623582</v>
       </c>
       <c r="E154" s="20">
         <f t="shared" si="2"/>
@@ -8148,11 +10012,11 @@
       </c>
       <c r="F154" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3520706691549257E-2</v>
+        <v>2.1108696724489822E-2</v>
       </c>
       <c r="G154" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13955632084199329</v>
+        <v>0.40030503238062132</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -8184,7 +10048,7 @@
       </c>
       <c r="D155" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66031937600821966</v>
+        <v>1.0013517324109134</v>
       </c>
       <c r="E155" s="20">
         <f t="shared" si="2"/>
@@ -8192,11 +10056,11 @@
       </c>
       <c r="F155" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3217332329642197E-2</v>
+        <v>1.9995638959404101E-2</v>
       </c>
       <c r="G155" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12633898851235109</v>
+        <v>0.42030067134002541</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8228,7 +10092,7 @@
       </c>
       <c r="D156" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56648502122061695</v>
+        <v>0.73767740614129407</v>
       </c>
       <c r="E156" s="20">
         <f t="shared" si="2"/>
@@ -8236,11 +10100,11 @@
       </c>
       <c r="F156" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1319792268450585E-2</v>
+        <v>1.4720584148603135E-2</v>
       </c>
       <c r="G156" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13765878078080168</v>
+        <v>0.43502125548862852</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8272,7 +10136,7 @@
       </c>
       <c r="D157" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1715070066758471</v>
+        <v>0.11424618872713778</v>
       </c>
       <c r="E157" s="20">
         <f t="shared" si="2"/>
@@ -8280,11 +10144,11 @@
       </c>
       <c r="F157" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3419344150710605E-2</v>
+        <v>2.2508052447005105E-3</v>
       </c>
       <c r="G157" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1610781249315123</v>
+        <v>0.43727206073332903</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8316,7 +10180,7 @@
       </c>
       <c r="D158" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4177361011412055</v>
+        <v>-0.34655704735330284</v>
       </c>
       <c r="E158" s="20">
         <f t="shared" si="2"/>
@@ -8324,11 +10188,11 @@
       </c>
       <c r="F158" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8367354816936384E-2</v>
+        <v>-6.9654360106529848E-3</v>
       </c>
       <c r="G158" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13271077011457591</v>
+        <v>0.43030662472267606</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8360,7 +10224,7 @@
       </c>
       <c r="D159" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6060907890120578E-2</v>
+        <v>-9.5972778362683669E-2</v>
       </c>
       <c r="E159" s="20">
         <f t="shared" si="2"/>
@@ -8368,11 +10232,11 @@
       </c>
       <c r="F159" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1081025426401347E-4</v>
+        <v>-1.9532043221338834E-3</v>
       </c>
       <c r="G159" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13342158036883991</v>
+        <v>0.4283534204005422</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8404,7 +10268,7 @@
       </c>
       <c r="D160" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37389715028894099</v>
+        <v>1.0534714167865016</v>
       </c>
       <c r="E160" s="20">
         <f t="shared" si="2"/>
@@ -8412,11 +10276,11 @@
       </c>
       <c r="F160" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4674793524165577E-3</v>
+        <v>2.1035832773345677E-2</v>
       </c>
       <c r="G160" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14088905972125648</v>
+        <v>0.44938925317388789</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8448,7 +10312,7 @@
       </c>
       <c r="D161" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31642062260423781</v>
+        <v>1.5104263671300699</v>
       </c>
       <c r="E161" s="20">
         <f t="shared" si="2"/>
@@ -8456,11 +10320,11 @@
       </c>
       <c r="F161" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.3394617901021098E-3</v>
+        <v>3.017328191097992E-2</v>
       </c>
       <c r="G161" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13454959793115437</v>
+        <v>0.47956253508486779</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8492,7 +10356,7 @@
       </c>
       <c r="D162" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3480591384917822</v>
+        <v>1.9580886595069333</v>
       </c>
       <c r="E162" s="20">
         <f t="shared" si="2"/>
@@ -8500,11 +10364,11 @@
       </c>
       <c r="F162" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6950630644507711E-2</v>
+        <v>3.9124161226602595E-2</v>
       </c>
       <c r="G162" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16150022857566207</v>
+        <v>0.51868669631147035</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8536,7 +10400,7 @@
       </c>
       <c r="D163" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55807435720048282</v>
+        <v>-0.82393991582113535</v>
       </c>
       <c r="E163" s="20">
         <f t="shared" si="2"/>
@@ -8544,11 +10408,11 @@
       </c>
       <c r="F163" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.11741530442901E-2</v>
+        <v>-1.6519478841623605E-2</v>
       </c>
       <c r="G163" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15032607553137198</v>
+        <v>0.50216721746984672</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8580,7 +10444,7 @@
       </c>
       <c r="D164" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21748216428813374</v>
+        <v>-1.0217309955417626</v>
       </c>
       <c r="E164" s="20">
         <f t="shared" si="2"/>
@@ -8588,11 +10452,11 @@
       </c>
       <c r="F164" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.3614327818827826E-3</v>
+        <v>-2.047400479063681E-2</v>
       </c>
       <c r="G164" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1459646427494892</v>
+        <v>0.48169321267920989</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8624,7 +10488,7 @@
       </c>
       <c r="D165" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65120276445318581</v>
+        <v>1.041262904041611</v>
       </c>
       <c r="E165" s="20">
         <f t="shared" si="2"/>
@@ -8632,11 +10496,11 @@
       </c>
       <c r="F165" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3012607866102973E-2</v>
+        <v>2.0787479005327972E-2</v>
       </c>
       <c r="G165" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15897725061559217</v>
+        <v>0.50248069168453791</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8668,7 +10532,7 @@
       </c>
       <c r="D166" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5996715374790289</v>
+        <v>-0.70525221735934374</v>
       </c>
       <c r="E166" s="20">
         <f t="shared" si="2"/>
@@ -8676,11 +10540,11 @@
       </c>
       <c r="F166" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.2005898769236707E-2</v>
+        <v>-1.414445381320135E-2</v>
       </c>
       <c r="G166" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12697135184635547</v>
+        <v>0.48833623787133656</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8712,7 +10576,7 @@
       </c>
       <c r="D167" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84280753693168409</v>
+        <v>1.7535653510379814</v>
       </c>
       <c r="E167" s="20">
         <f t="shared" si="2"/>
@@ -8720,11 +10584,11 @@
       </c>
       <c r="F167" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6846192985547695E-2</v>
+        <v>3.5033006923671679E-2</v>
       </c>
       <c r="G167" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14381754483190318</v>
+        <v>0.52336924479500824</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8756,7 +10620,7 @@
       </c>
       <c r="D168" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8507575205595008</v>
+        <v>0.37134518347527445</v>
       </c>
       <c r="E168" s="20">
         <f t="shared" si="2"/>
@@ -8764,11 +10628,11 @@
       </c>
       <c r="F168" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7003871388065948E-2</v>
+        <v>7.3858558855999989E-3</v>
       </c>
       <c r="G168" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18082141621996911</v>
+        <v>0.53075510068060827</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8800,7 +10664,7 @@
       </c>
       <c r="D169" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94138365895355114</v>
+        <v>0.28703428248743335</v>
       </c>
       <c r="E169" s="20">
         <f t="shared" si="2"/>
@@ -8808,11 +10672,11 @@
       </c>
       <c r="F169" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8841854466617687E-2</v>
+        <v>5.6990585830286192E-3</v>
       </c>
       <c r="G169" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16197956175335143</v>
+        <v>0.53645415926363693</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -8844,7 +10708,7 @@
       </c>
       <c r="D170" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4727067300694174</v>
+        <v>-0.71297759803414906</v>
       </c>
       <c r="E170" s="20">
         <f t="shared" si="2"/>
@@ -8852,11 +10716,11 @@
       </c>
       <c r="F170" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9441431106348871E-2</v>
+        <v>-1.4301626012389934E-2</v>
       </c>
       <c r="G170" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1914209928597003</v>
+        <v>0.522152533251247</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -8888,7 +10752,7 @@
       </c>
       <c r="D171" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57705275536111111</v>
+        <v>-0.41842926608381403</v>
       </c>
       <c r="E171" s="20">
         <f t="shared" si="2"/>
@@ -8896,11 +10760,11 @@
       </c>
       <c r="F171" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1526042480331265E-2</v>
+        <v>-8.4095376772253989E-3</v>
       </c>
       <c r="G171" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20294703534003156</v>
+        <v>0.51374299557402159</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -8932,7 +10796,7 @@
       </c>
       <c r="D172" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71762765132102724</v>
+        <v>-0.14400307116263145</v>
       </c>
       <c r="E172" s="20">
         <f t="shared" si="2"/>
@@ -8940,11 +10804,11 @@
       </c>
       <c r="F172" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4336636396197798E-2</v>
+        <v>-2.9203542072192188E-3</v>
       </c>
       <c r="G172" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21728367173622937</v>
+        <v>0.51082264136680233</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -8976,7 +10840,7 @@
       </c>
       <c r="D173" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94808567773583619</v>
+        <v>0.31994218181247197</v>
       </c>
       <c r="E173" s="20">
         <f t="shared" si="2"/>
@@ -8984,11 +10848,11 @@
       </c>
       <c r="F173" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8978754627009764E-2</v>
+        <v>6.3587798996716516E-3</v>
       </c>
       <c r="G173" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1983049171092196</v>
+        <v>0.51718142126647404</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -9020,7 +10884,7 @@
       </c>
       <c r="D174" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3457364024624137</v>
+        <v>2.0229356108369263</v>
       </c>
       <c r="E174" s="20">
         <f t="shared" si="2"/>
@@ -9028,11 +10892,11 @@
       </c>
       <c r="F174" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.6930280591766644E-2</v>
+        <v>4.0418149752325466E-2</v>
       </c>
       <c r="G174" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17137463651745297</v>
+        <v>0.55759957101879953</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -9064,7 +10928,7 @@
       </c>
       <c r="D175" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4991881543118779</v>
+        <v>-0.10559492443023993</v>
       </c>
       <c r="E175" s="20">
         <f t="shared" si="2"/>
@@ -9072,11 +10936,11 @@
       </c>
       <c r="F175" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.9997203449885986E-2</v>
+        <v>-2.1556310039788219E-3</v>
       </c>
       <c r="G175" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14137743306756698</v>
+        <v>0.55544394001482067</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -9108,7 +10972,7 @@
       </c>
       <c r="D176" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12542516949962615</v>
+        <v>-1.5860265609953885</v>
       </c>
       <c r="E176" s="20">
         <f t="shared" si="2"/>
@@ -9116,11 +10980,11 @@
       </c>
       <c r="F176" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.5195910318017442E-3</v>
+        <v>-3.1764094666183441E-2</v>
       </c>
       <c r="G176" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13885784203576523</v>
+        <v>0.52367984534863721</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9152,7 +11016,7 @@
       </c>
       <c r="D177" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.863636614473696</v>
+        <v>-0.87441274986505368</v>
       </c>
       <c r="E177" s="20">
         <f t="shared" si="2"/>
@@ -9160,11 +11024,11 @@
       </c>
       <c r="F177" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7261842262647588E-2</v>
+        <v>-1.7529327142034298E-2</v>
       </c>
       <c r="G177" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17611968429841282</v>
+        <v>0.50615051820660295</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -9196,7 +11060,7 @@
       </c>
       <c r="D178" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50294457693588013</v>
+        <v>1.5737640794083856</v>
       </c>
       <c r="E178" s="20">
         <f t="shared" si="2"/>
@@ -9204,11 +11068,11 @@
       </c>
       <c r="F178" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0072704062976301E-2</v>
+        <v>3.1435584292622096E-2</v>
       </c>
       <c r="G178" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16604698023543651</v>
+        <v>0.537586102499225</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9240,7 +11104,7 @@
       </c>
       <c r="D179" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84238974756400087</v>
+        <v>0.64988602298972709</v>
       </c>
       <c r="E179" s="20">
         <f t="shared" si="2"/>
@@ -9248,11 +11112,11 @@
       </c>
       <c r="F179" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6860817459533779E-2</v>
+        <v>1.2955557628225976E-2</v>
       </c>
       <c r="G179" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14918616277590274</v>
+        <v>0.55054166012745098</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9284,7 +11148,7 @@
       </c>
       <c r="D180" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94514660619104274</v>
+        <v>-5.7774090797536447E-2</v>
       </c>
       <c r="E180" s="20">
         <f t="shared" si="2"/>
@@ -9292,11 +11156,11 @@
       </c>
       <c r="F180" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8891232032622742E-2</v>
+        <v>-1.1986607696862152E-3</v>
       </c>
       <c r="G180" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16807739480852549</v>
+        <v>0.54934299935776476</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9328,7 +11192,7 @@
       </c>
       <c r="D181" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0804069486816434</v>
+        <v>-0.53664355075376724</v>
       </c>
       <c r="E181" s="20">
         <f t="shared" si="2"/>
@@ -9336,11 +11200,11 @@
       </c>
       <c r="F181" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.1621320730088437E-2</v>
+        <v>-1.0775955956201445E-2</v>
       </c>
       <c r="G181" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14645607407843705</v>
+        <v>0.53856704340156336</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9372,7 +11236,7 @@
       </c>
       <c r="D182" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11117720737721691</v>
+        <v>0.67982267682185105</v>
       </c>
       <c r="E182" s="20">
         <f t="shared" si="2"/>
@@ -9380,11 +11244,11 @@
       </c>
       <c r="F182" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.212058180949951E-3</v>
+        <v>1.3554213768327095E-2</v>
       </c>
       <c r="G182" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14866813225938699</v>
+        <v>0.55212125716989047</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -9416,7 +11280,7 @@
       </c>
       <c r="D183" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.77320505180293231</v>
+        <v>-0.59180500640647571</v>
       </c>
       <c r="E183" s="20">
         <f t="shared" si="2"/>
@@ -9424,11 +11288,11 @@
       </c>
       <c r="F183" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.5475760497412325E-2</v>
+        <v>-1.1879402971829114E-2</v>
       </c>
       <c r="G183" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13319237176197468</v>
+        <v>0.54024185419806137</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -9460,7 +11324,7 @@
       </c>
       <c r="D184" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66840237097780542</v>
+        <v>-0.40267492359365731</v>
       </c>
       <c r="E184" s="20">
         <f t="shared" si="2"/>
@@ -9468,11 +11332,11 @@
       </c>
       <c r="F184" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3378493095772733E-2</v>
+        <v>-8.0958695976926023E-3</v>
       </c>
       <c r="G184" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11981387866620195</v>
+        <v>0.53214598460036877</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -9504,7 +11368,7 @@
       </c>
       <c r="D185" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55879689682403599</v>
+        <v>0.58136029686468449</v>
       </c>
       <c r="E185" s="20">
         <f t="shared" si="2"/>
@@ -9512,11 +11376,11 @@
       </c>
       <c r="F185" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.1185334319121207E-2</v>
+        <v>1.158546978163876E-2</v>
       </c>
       <c r="G185" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10862854434708075</v>
+        <v>0.54373145438200754</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -9548,7 +11412,7 @@
       </c>
       <c r="D186" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73201797558435611</v>
+        <v>-1.0403716216951659</v>
       </c>
       <c r="E186" s="20">
         <f t="shared" si="2"/>
@@ -9556,11 +11420,11 @@
       </c>
       <c r="F186" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.464887861320454E-2</v>
+        <v>-2.0850077253854852E-2</v>
       </c>
       <c r="G186" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>9.39796657338762E-2</v>
+        <v>0.52288137712815264</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -9592,7 +11456,7 @@
       </c>
       <c r="D187" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68440832584788391</v>
+        <v>-0.67105450462695226</v>
       </c>
       <c r="E187" s="20">
         <f t="shared" si="2"/>
@@ -9600,11 +11464,11 @@
       </c>
       <c r="F187" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3695536686819158E-2</v>
+        <v>-1.3462099612313804E-2</v>
       </c>
       <c r="G187" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0284129047057035E-2</v>
+        <v>0.50941927751583882</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -9636,7 +11500,7 @@
       </c>
       <c r="D188" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8491933438388162</v>
+        <v>-0.72006676227940014</v>
       </c>
       <c r="E188" s="20">
         <f t="shared" si="2"/>
@@ -9644,11 +11508,11 @@
       </c>
       <c r="F188" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.6990162886897663E-2</v>
+        <v>-1.4441288914412775E-2</v>
       </c>
       <c r="G188" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3293966160159371E-2</v>
+        <v>0.49497798860142606</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -9680,7 +11544,7 @@
       </c>
       <c r="D189" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1223008785433481</v>
+        <v>-0.51571428330637481</v>
       </c>
       <c r="E189" s="20">
         <f t="shared" si="2"/>
@@ -9688,11 +11552,11 @@
       </c>
       <c r="F189" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.2447843764291289E-2</v>
+        <v>-1.0353106684841334E-2</v>
       </c>
       <c r="G189" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4612239586808261E-4</v>
+        <v>0.4846248819165847</v>
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -9724,7 +11588,7 @@
       </c>
       <c r="D190" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35284950936166509</v>
+        <v>-0.82730709284338255</v>
       </c>
       <c r="E190" s="20">
         <f t="shared" si="2"/>
@@ -9732,11 +11596,11 @@
       </c>
       <c r="F190" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0569246090061745E-3</v>
+        <v>-1.6584150867214049E-2</v>
       </c>
       <c r="G190" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9030470048742571E-3</v>
+        <v>0.46804073104937066</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -9768,7 +11632,7 @@
       </c>
       <c r="D191" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0240840615423952</v>
+        <v>-0.41461790903896922</v>
       </c>
       <c r="E191" s="20">
         <f t="shared" si="2"/>
@@ -9776,11 +11640,11 @@
       </c>
       <c r="F191" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.048106216833772E-2</v>
+        <v>-8.3290664734107078E-3</v>
       </c>
       <c r="G191" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8384109173211977E-2</v>
+        <v>0.45971166457595997</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -9812,7 +11676,7 @@
       </c>
       <c r="D192" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13648718047745434</v>
+        <v>1.0670198007223441</v>
       </c>
       <c r="E192" s="20">
         <f t="shared" si="2"/>
@@ -9820,11 +11684,11 @@
       </c>
       <c r="F192" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.7319690298763977E-3</v>
+        <v>2.1304340981931121E-2</v>
       </c>
       <c r="G192" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.565214014333558E-2</v>
+        <v>0.48101600555789109</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -9856,7 +11720,7 @@
       </c>
       <c r="D193" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4933015536773682</v>
+        <v>-0.2660043516797051</v>
       </c>
       <c r="E193" s="20">
         <f t="shared" si="2"/>
@@ -9864,11 +11728,11 @@
       </c>
       <c r="F193" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9864019925300828E-2</v>
+        <v>-5.3578129948143281E-3</v>
       </c>
       <c r="G193" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5516160068636411E-2</v>
+        <v>0.47565819256307679</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -9900,7 +11764,7 @@
       </c>
       <c r="D194" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63120760259048758</v>
+        <v>-7.389664272116199E-2</v>
       </c>
       <c r="E194" s="20">
         <f t="shared" si="2"/>
@@ -9908,11 +11772,11 @@
       </c>
       <c r="F194" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2619798627490644E-2</v>
+        <v>-1.5152385950164223E-3</v>
       </c>
       <c r="G194" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8135958696127055E-2</v>
+        <v>0.47414295396806039</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -9944,7 +11808,7 @@
       </c>
       <c r="D195" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9861156572894409</v>
+        <v>-0.66051503347599749</v>
       </c>
       <c r="E195" s="20">
         <f t="shared" si="2"/>
@@ -9952,11 +11816,11 @@
       </c>
       <c r="F195" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9716969933342065E-2</v>
+        <v>-1.3247487567870385E-2</v>
       </c>
       <c r="G195" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12785292862946912</v>
+        <v>0.46089546640019002</v>
       </c>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -9988,7 +11852,7 @@
       </c>
       <c r="D196" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5459609237053723</v>
+        <v>1.174510343432638</v>
       </c>
       <c r="E196" s="20">
         <f t="shared" si="2"/>
@@ -9996,11 +11860,11 @@
       </c>
       <c r="F196" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0909191577744349E-2</v>
+        <v>2.3454058988935097E-2</v>
       </c>
       <c r="G196" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13876212020721346</v>
+        <v>0.48434952538912512</v>
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -10032,7 +11896,7 @@
       </c>
       <c r="D197" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1393356598475359</v>
+        <v>1.1313447493546525</v>
       </c>
       <c r="E197" s="20">
         <f t="shared" si="2"/>
@@ -10040,11 +11904,11 @@
       </c>
       <c r="F197" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2775830677718781E-2</v>
+        <v>2.2588907573337043E-2</v>
       </c>
       <c r="G197" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16153795088493222</v>
+        <v>0.50693843296246222</v>
       </c>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -10076,7 +11940,7 @@
       </c>
       <c r="D198" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36125387392738989</v>
+        <v>-2.2282751519883792</v>
       </c>
       <c r="E198" s="20">
         <f t="shared" si="2"/>
@@ -10084,11 +11948,11 @@
       </c>
       <c r="F198" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2124086196548622E-3</v>
+        <v>-4.4605262132548951E-2</v>
       </c>
       <c r="G198" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16875035950458708</v>
+        <v>0.46233317082991326</v>
       </c>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -10120,7 +11984,7 @@
       </c>
       <c r="D199" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18138868550277928</v>
+        <v>0.44849796689464017</v>
       </c>
       <c r="E199" s="20">
         <f t="shared" si="2"/>
@@ -10128,11 +11992,11 @@
       </c>
       <c r="F199" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6145391720552259E-3</v>
+        <v>8.933698697043399E-3</v>
       </c>
       <c r="G199" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17236489867664231</v>
+        <v>0.47126686952695668</v>
       </c>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -10164,7 +12028,7 @@
       </c>
       <c r="D200" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17246475083667109</v>
+        <v>-1.3027128035201967</v>
       </c>
       <c r="E200" s="20">
         <f t="shared" si="2"/>
@@ -10172,11 +12036,11 @@
       </c>
       <c r="F200" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4628130480021781E-3</v>
+        <v>-2.6091217393504087E-2</v>
       </c>
       <c r="G200" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16890208562864015</v>
+        <v>0.44517565213345262</v>
       </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -10208,7 +12072,7 @@
       </c>
       <c r="D201" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6200271554528183</v>
+        <v>1.6323424611667199</v>
       </c>
       <c r="E201" s="20">
         <f t="shared" si="2"/>
@@ -10216,11 +12080,11 @@
       </c>
       <c r="F201" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2387296670967847E-2</v>
+        <v>3.2611934270225892E-2</v>
       </c>
       <c r="G201" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20128938229960799</v>
+        <v>0.47778758640367852</v>
       </c>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -10252,7 +12116,7 @@
       </c>
       <c r="D202" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0598195069709824</v>
+        <v>0.19088157631103825</v>
       </c>
       <c r="E202" s="20">
         <f t="shared" si="2"/>
@@ -10260,11 +12124,11 @@
       </c>
       <c r="F202" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1180603521200072E-2</v>
+        <v>3.7801587743459667E-3</v>
       </c>
       <c r="G202" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22246998582080807</v>
+        <v>0.48156774517802448</v>
       </c>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -10296,7 +12160,7 @@
       </c>
       <c r="D203" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9433482170083216</v>
+        <v>-0.30578769196194167</v>
       </c>
       <c r="E203" s="20">
         <f t="shared" si="2"/>
@@ -10304,11 +12168,11 @@
       </c>
       <c r="F203" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8849516498141272E-2</v>
+        <v>-6.1535230741547571E-3</v>
       </c>
       <c r="G203" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26131950231894935</v>
+        <v>0.47541422210386974</v>
       </c>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -10340,7 +12204,7 @@
       </c>
       <c r="D204" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29420610766401134</v>
+        <v>1.5029377325680613</v>
       </c>
       <c r="E204" s="20">
         <f t="shared" si="2"/>
@@ -10348,11 +12212,11 @@
       </c>
       <c r="F204" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.904617016207204E-3</v>
+        <v>3.0021468045706021E-2</v>
       </c>
       <c r="G204" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25541488530274215</v>
+        <v>0.50543569014957579</v>
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -10384,7 +12248,7 @@
       </c>
       <c r="D205" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12014352879703522</v>
+        <v>-0.10834441692784033</v>
       </c>
       <c r="E205" s="20">
         <f t="shared" si="2"/>
@@ -10392,11 +12256,11 @@
       </c>
       <c r="F205" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3828388202306854E-3</v>
+        <v>-2.2065295691567734E-3</v>
       </c>
       <c r="G205" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2577977241229728</v>
+        <v>0.503229160580419</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -10428,7 +12292,7 @@
       </c>
       <c r="D206" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53136607464216601</v>
+        <v>1.3451161857576952</v>
       </c>
       <c r="E206" s="20">
         <f t="shared" si="2"/>
@@ -10436,11 +12300,11 @@
       </c>
       <c r="F206" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0647540137872573E-2</v>
+        <v>2.6862855545696614E-2</v>
       </c>
       <c r="G206" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24715018398510022</v>
+        <v>0.53009201612611556</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -10472,7 +12336,7 @@
       </c>
       <c r="D207" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72669700861536501</v>
+        <v>1.0398702005691551</v>
       </c>
       <c r="E207" s="20">
         <f t="shared" si="2"/>
@@ -10480,11 +12344,11 @@
       </c>
       <c r="F207" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4514556628465331E-2</v>
+        <v>2.0755828951294783E-2</v>
       </c>
       <c r="G207" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26166474061356554</v>
+        <v>0.55084784507741036</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -10516,7 +12380,7 @@
       </c>
       <c r="D208" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4283346782594748</v>
+        <v>0.84995165807793038</v>
       </c>
       <c r="E208" s="20">
         <f t="shared" si="2"/>
@@ -10524,11 +12388,11 @@
       </c>
       <c r="F208" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5461716247492159E-3</v>
+        <v>1.6955830193317242E-2</v>
       </c>
       <c r="G208" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27021091223831473</v>
+        <v>0.56780367527072761</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -10560,7 +12424,7 @@
       </c>
       <c r="D209" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.71394098823363916</v>
+        <v>2.1788128067275045</v>
       </c>
       <c r="E209" s="20">
         <f t="shared" si="2"/>
@@ -10568,11 +12432,11 @@
       </c>
       <c r="F209" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4300011993083632E-2</v>
+        <v>4.3531723297273957E-2</v>
       </c>
       <c r="G209" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25591090024523111</v>
+        <v>0.61133539856800156</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -10604,7 +12468,7 @@
       </c>
       <c r="D210" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37609822036544305</v>
+        <v>1.0572864178574799</v>
       </c>
       <c r="E210" s="20">
         <f t="shared" si="2"/>
@@ -10612,11 +12476,11 @@
       </c>
       <c r="F210" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.542035066151624E-3</v>
+        <v>2.1097781267065831E-2</v>
       </c>
       <c r="G210" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2483688651790795</v>
+        <v>0.63243317983506742</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -10648,7 +12512,7 @@
       </c>
       <c r="D211" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20736768761194405</v>
+        <v>-2.5948855638349765E-2</v>
       </c>
       <c r="E211" s="20">
         <f t="shared" si="2"/>
@@ -10656,11 +12520,11 @@
       </c>
       <c r="F211" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1278746255581688E-3</v>
+        <v>-5.6857893079327506E-4</v>
       </c>
       <c r="G211" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25249673980463766</v>
+        <v>0.6318646009042741</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -10692,7 +12556,7 @@
       </c>
       <c r="D212" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7175573584694304</v>
+        <v>-3.004975821749623</v>
       </c>
       <c r="E212" s="20">
         <f t="shared" si="2"/>
@@ -10700,11 +12564,11 @@
       </c>
       <c r="F212" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4370950050941908E-2</v>
+        <v>-6.0149073658592796E-2</v>
       </c>
       <c r="G212" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21812578975369576</v>
+        <v>0.57171552724568131</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -10736,7 +12600,7 @@
       </c>
       <c r="D213" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0225419486380118</v>
+        <v>4.9573866280045474E-2</v>
       </c>
       <c r="E213" s="20">
         <f t="shared" si="2"/>
@@ -10744,11 +12608,11 @@
       </c>
       <c r="F213" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.046794609352523E-2</v>
+        <v>9.4663767640516979E-4</v>
       </c>
       <c r="G213" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19765784366017053</v>
+        <v>0.57266216492208644</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -10780,7 +12644,7 @@
       </c>
       <c r="D214" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7187458454904212</v>
+        <v>1.2062423343167765</v>
       </c>
       <c r="E214" s="20">
         <f t="shared" si="2"/>
@@ -10788,11 +12652,11 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4359415118148804E-2</v>
+        <v>2.4079932791047524E-2</v>
       </c>
       <c r="G214" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21201725877831934</v>
+        <v>0.59674209771313391</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -10824,7 +12688,7 @@
       </c>
       <c r="D215" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39714434468737642</v>
+        <v>1.3027807808858718</v>
       </c>
       <c r="E215" s="20">
         <f t="shared" si="2"/>
@@ -10832,11 +12696,11 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.9595149140438675E-3</v>
+        <v>2.6008813100249741E-2</v>
       </c>
       <c r="G215" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20405774386427547</v>
+        <v>0.62275091081338363</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -10868,7 +12732,7 @@
       </c>
       <c r="D216" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16636340917288997</v>
+        <v>0.81153101534511174</v>
       </c>
       <c r="E216" s="20">
         <f t="shared" si="2"/>
@@ -10876,11 +12740,11 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3112644388409935E-3</v>
+        <v>1.6181777882524714E-2</v>
       </c>
       <c r="G216" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20736900830311647</v>
+        <v>0.63893268869590836</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -10912,7 +12776,7 @@
       </c>
       <c r="D217" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3143946195058216</v>
+        <v>1.7496147735541023</v>
       </c>
       <c r="E217" s="20">
         <f t="shared" si="2"/>
@@ -10920,11 +12784,11 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.6304155841748049E-2</v>
+        <v>3.4942183887654917E-2</v>
       </c>
       <c r="G217" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18106485246136841</v>
+        <v>0.67387487258356327</v>
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -10956,7 +12820,7 @@
       </c>
       <c r="D218" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1956706475220069</v>
+        <v>5.391915823571361E-3</v>
       </c>
       <c r="E218" s="20">
         <f t="shared" si="2"/>
@@ -10964,11 +12828,11 @@
       </c>
       <c r="F218" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.392761333102535E-2</v>
+        <v>5.4986169602128137E-5</v>
       </c>
       <c r="G218" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13713723913034306</v>
+        <v>0.67392985875316536</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -11000,7 +12864,7 @@
       </c>
       <c r="D219" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4085278959286478</v>
+        <v>-0.32999285080694957</v>
       </c>
       <c r="E219" s="20">
         <f t="shared" si="2"/>
@@ -11008,11 +12872,11 @@
       </c>
       <c r="F219" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.1813129961518065E-3</v>
+        <v>-6.6527134756490438E-3</v>
       </c>
       <c r="G219" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12895592613419127</v>
+        <v>0.66727714527751636</v>
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -11044,7 +12908,7 @@
       </c>
       <c r="D220" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12345500716412486</v>
+        <v>-1.4587713481839091</v>
       </c>
       <c r="E220" s="20">
         <f t="shared" si="2"/>
@@ -11052,11 +12916,11 @@
       </c>
       <c r="F220" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4792135492538061E-3</v>
+        <v>-2.9227761641739163E-2</v>
       </c>
       <c r="G220" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12647671258493745</v>
+        <v>0.63804938363577723</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -11088,7 +12952,7 @@
       </c>
       <c r="D221" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0738382535950634E-2</v>
+        <v>0.29409765169962987</v>
       </c>
       <c r="E221" s="20">
         <f t="shared" si="2"/>
@@ -11096,11 +12960,11 @@
       </c>
       <c r="F221" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4246866085688118E-3</v>
+        <v>5.831910729393713E-3</v>
       </c>
       <c r="G221" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12505202597636864</v>
+        <v>0.64388129436517094</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -11132,7 +12996,7 @@
       </c>
       <c r="D222" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44212281160749539</v>
+        <v>1.3567624112308379</v>
       </c>
       <c r="E222" s="20">
         <f t="shared" si="2"/>
@@ -11140,11 +13004,11 @@
       </c>
       <c r="F222" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8326490144262707E-3</v>
+        <v>2.7084748515254782E-2</v>
       </c>
       <c r="G222" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1338846749907949</v>
+        <v>0.67096604288042572</v>
       </c>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -11176,7 +13040,7 @@
       </c>
       <c r="D223" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81954742298767536</v>
+        <v>0.279912942968575</v>
       </c>
       <c r="E223" s="20">
         <f t="shared" si="2"/>
@@ -11184,11 +13048,11 @@
       </c>
       <c r="F223" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6380448485244427E-2</v>
+        <v>5.54563485600833E-3</v>
       </c>
       <c r="G223" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15026512347603932</v>
+        <v>0.67651167773643406</v>
       </c>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -11220,7 +13084,7 @@
       </c>
       <c r="D224" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49069421552041093</v>
+        <v>9.0452489179532733E-2</v>
       </c>
       <c r="E224" s="20">
         <f t="shared" si="2"/>
@@ -11228,11 +13092,11 @@
       </c>
       <c r="F224" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8020995948414694E-3</v>
+        <v>1.7559908284740717E-3</v>
       </c>
       <c r="G224" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16006722307088078</v>
+        <v>0.67826766856490817</v>
       </c>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -11264,7 +13128,7 @@
       </c>
       <c r="D225" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32084744689856509</v>
+        <v>-1.3252528377473751</v>
       </c>
       <c r="E225" s="20">
         <f t="shared" si="2"/>
@@ -11272,11 +13136,11 @@
       </c>
       <c r="F225" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4043954302794677E-3</v>
+        <v>-2.6558253434834946E-2</v>
       </c>
       <c r="G225" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16647161850116024</v>
+        <v>0.65170941513007319</v>
       </c>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -11308,7 +13172,7 @@
       </c>
       <c r="D226" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94047641476565491</v>
+        <v>-0.92480634740048562</v>
       </c>
       <c r="E226" s="20">
         <f t="shared" si="2"/>
@@ -11316,11 +13180,11 @@
       </c>
       <c r="F226" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8796472482097322E-2</v>
+        <v>-1.8547240627627758E-2</v>
       </c>
       <c r="G226" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18526809098325756</v>
+        <v>0.63316217450244539</v>
       </c>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -11352,7 +13216,7 @@
       </c>
       <c r="D227" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1156949783661561</v>
+        <v>-0.65910035815173273</v>
       </c>
       <c r="E227" s="20">
         <f t="shared" si="2"/>
@@ -11360,11 +13224,11 @@
       </c>
       <c r="F227" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2299369520971491E-2</v>
+        <v>-1.3231666157113277E-2</v>
       </c>
       <c r="G227" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20756746050422906</v>
+        <v>0.61993050834533214</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -11396,7 +13260,7 @@
       </c>
       <c r="D228" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2092750456481507</v>
+        <v>0.79143393534123962</v>
       </c>
       <c r="E228" s="20">
         <f t="shared" si="2"/>
@@ -11404,11 +13268,11 @@
       </c>
       <c r="F228" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4201779929473147E-2</v>
+        <v>1.578005749048398E-2</v>
       </c>
       <c r="G228" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18336568057475591</v>
+        <v>0.63571056583581609</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -11440,7 +13304,7 @@
       </c>
       <c r="D229" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0678686275427778</v>
+        <v>-0.94502632025352884</v>
       </c>
       <c r="E229" s="20">
         <f t="shared" si="2"/>
@@ -11448,11 +13312,11 @@
       </c>
       <c r="F229" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1342991713163416E-2</v>
+        <v>-1.8950385272979271E-2</v>
       </c>
       <c r="G229" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20470867228791934</v>
+        <v>0.61676018056283677</v>
       </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -11484,7 +13348,7 @@
       </c>
       <c r="D230" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31733368722128752</v>
+        <v>-1.1872965565483249</v>
       </c>
       <c r="E230" s="20">
         <f t="shared" si="2"/>
@@ -11492,11 +13356,11 @@
       </c>
       <c r="F230" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.3627285422522542E-3</v>
+        <v>-2.3794303694147898E-2</v>
       </c>
       <c r="G230" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19834594374566708</v>
+        <v>0.59296587686868885</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -11528,7 +13392,7 @@
       </c>
       <c r="D231" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7300638834704536</v>
+        <v>0.87133207712143079</v>
       </c>
       <c r="E231" s="20">
         <f t="shared" si="2"/>
@@ -11536,11 +13400,11 @@
       </c>
       <c r="F231" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.458572190911529E-2</v>
+        <v>1.7380135199144796E-2</v>
       </c>
       <c r="G231" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23293166565478238</v>
+        <v>0.61034601206783368</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -11572,7 +13436,7 @@
       </c>
       <c r="D232" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.418595170011818</v>
+        <v>-0.31898772978559209</v>
       </c>
       <c r="E232" s="20">
         <f t="shared" si="2"/>
@@ -11580,11 +13444,11 @@
       </c>
       <c r="F232" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8390171766170071E-2</v>
+        <v>-6.4276240868544176E-3</v>
       </c>
       <c r="G232" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20454149388861231</v>
+        <v>0.6039183879809793</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -11616,7 +13480,7 @@
       </c>
       <c r="D233" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31699243679217853</v>
+        <v>0.66335324332507584</v>
       </c>
       <c r="E233" s="20">
         <f t="shared" si="2"/>
@@ -11624,11 +13488,11 @@
       </c>
       <c r="F233" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3238070500483854E-3</v>
+        <v>1.3219699502738302E-2</v>
       </c>
       <c r="G233" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21086530093866071</v>
+        <v>0.61713808748371757</v>
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -11660,7 +13524,7 @@
       </c>
       <c r="D234" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50053357185400305</v>
+        <v>-2.2809317965644165</v>
       </c>
       <c r="E234" s="20">
         <f t="shared" si="2"/>
@@ -11668,11 +13532,11 @@
       </c>
       <c r="F234" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0027209107741918E-2</v>
+        <v>-4.5667038134228226E-2</v>
       </c>
       <c r="G234" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2008380918309188</v>
+        <v>0.57147104934948934</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -11704,7 +13568,7 @@
       </c>
       <c r="D235" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32241167464659087</v>
+        <v>0.25555810561617098</v>
       </c>
       <c r="E235" s="20">
         <f t="shared" si="2"/>
@@ -11712,11 +13576,11 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.4639847158205173E-3</v>
+        <v>5.0663416378646364E-3</v>
       </c>
       <c r="G235" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19437410711509828</v>
+        <v>0.57653739098735401</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -11748,7 +13612,7 @@
       </c>
       <c r="D236" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31206110147432903</v>
+        <v>-0.8773893670489471</v>
       </c>
       <c r="E236" s="20">
         <f t="shared" si="2"/>
@@ -11756,11 +13620,11 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.225977785791279E-3</v>
+        <v>-1.7593005175566185E-2</v>
       </c>
       <c r="G236" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20060008490088957</v>
+        <v>0.55894438581178785</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -11792,7 +13656,7 @@
       </c>
       <c r="D237" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64754287440306901</v>
+        <v>-0.37821473535382449</v>
       </c>
       <c r="E237" s="20">
         <f t="shared" si="2"/>
@@ -11800,11 +13664,11 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2966590043739882E-2</v>
+        <v>-7.6081326981205519E-3</v>
       </c>
       <c r="G237" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1876334948571497</v>
+        <v>0.5513362531136673</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -11836,7 +13700,7 @@
       </c>
       <c r="D238" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66845035884757087</v>
+        <v>-0.41788299956226516</v>
       </c>
       <c r="E238" s="20">
         <f t="shared" si="2"/>
@@ -11844,11 +13708,11 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3354291608727328E-2</v>
+        <v>-8.4009012659993151E-3</v>
       </c>
       <c r="G238" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20098778646587703</v>
+        <v>0.54293535184766795</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -11880,7 +13744,7 @@
       </c>
       <c r="D239" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98844242381171898</v>
+        <v>0.21761520201157758</v>
       </c>
       <c r="E239" s="20">
         <f t="shared" si="2"/>
@@ -11888,11 +13752,11 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9753085512589998E-2</v>
+        <v>4.3097216596944803E-3</v>
       </c>
       <c r="G239" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22074087197846703</v>
+        <v>0.5472450735073624</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -11924,7 +13788,7 @@
       </c>
       <c r="D240" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0361204437500618E-2</v>
+        <v>0.9800403517294014</v>
       </c>
       <c r="E240" s="20">
         <f t="shared" si="2"/>
@@ -11932,11 +13796,11 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.2453631400322552E-4</v>
+        <v>1.9557886636665883E-2</v>
       </c>
       <c r="G240" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22011633566446381</v>
+        <v>0.56680296014402831</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -11968,7 +13832,7 @@
       </c>
       <c r="D241" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89022944190676701</v>
+        <v>-0.30904926181949421</v>
       </c>
       <c r="E241" s="20">
         <f t="shared" si="2"/>
@@ -11976,11 +13840,11 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.7821852080148241E-2</v>
+        <v>-6.225439586205102E-3</v>
       </c>
       <c r="G241" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20229448358431557</v>
+        <v>0.56057752055782317</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -12012,7 +13876,7 @@
       </c>
       <c r="D242" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1420620872034961</v>
+        <v>-1.1735733143068383</v>
       </c>
       <c r="E242" s="20">
         <f t="shared" si="2"/>
@@ -12020,11 +13884,11 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.2857107193762809E-2</v>
+        <v>-2.3515432366180519E-2</v>
       </c>
       <c r="G242" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17943737639055277</v>
+        <v>0.53706208819164269</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -12056,7 +13920,7 @@
       </c>
       <c r="D243" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5736325714454551</v>
+        <v>-0.70655839184547575</v>
       </c>
       <c r="E243" s="20">
         <f t="shared" si="2"/>
@@ -12064,11 +13928,11 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.145857869350592E-2</v>
+        <v>-1.4173289569316704E-2</v>
       </c>
       <c r="G243" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19089595508405868</v>
+        <v>0.52288879862232596</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -12100,7 +13964,7 @@
       </c>
       <c r="D244" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95891227953282021</v>
+        <v>-0.51021594155441097</v>
       </c>
       <c r="E244" s="20">
         <f t="shared" si="2"/>
@@ -12108,11 +13972,11 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9163274143198832E-2</v>
+        <v>-1.0245328932940952E-2</v>
       </c>
       <c r="G244" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2100592292272575</v>
+        <v>0.51264346968938501</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -12144,7 +14008,7 @@
       </c>
       <c r="D245" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.61873458947503</v>
+        <v>-0.24757007149733748</v>
       </c>
       <c r="E245" s="20">
         <f t="shared" si="2"/>
@@ -12152,11 +14016,11 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2358217340149445E-2</v>
+        <v>-4.9916079765890539E-3</v>
       </c>
       <c r="G245" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24241744656740694</v>
+        <v>0.50765186171279597</v>
       </c>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -12188,7 +14052,7 @@
       </c>
       <c r="D246" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0825965126261531E-2</v>
+        <v>0.86156773480604987</v>
       </c>
       <c r="E246" s="20">
         <f t="shared" si="2"/>
@@ -12196,11 +14060,11 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9750695377484577E-4</v>
+        <v>1.7191539648143524E-2</v>
       </c>
       <c r="G246" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24261495352118179</v>
+        <v>0.52484340136093954</v>
       </c>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -12232,7 +14096,7 @@
       </c>
       <c r="D247" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3810131664776602</v>
+        <v>-0.92712893698018417</v>
       </c>
       <c r="E247" s="20">
         <f t="shared" si="2"/>
@@ -12240,11 +14104,11 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.6392911690450621E-3</v>
+        <v>-1.8583742143631992E-2</v>
       </c>
       <c r="G247" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23497566235213674</v>
+        <v>0.50625965921730753</v>
       </c>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -12276,7 +14140,7 @@
       </c>
       <c r="D248" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68478110744608933</v>
+        <v>0.26667499480664503</v>
       </c>
       <c r="E248" s="20">
         <f t="shared" si="2"/>
@@ -12284,11 +14148,11 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3714050828321955E-2</v>
+        <v>5.2937940405080137E-3</v>
       </c>
       <c r="G248" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22126161152381479</v>
+        <v>0.51155345325781554</v>
       </c>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -12320,7 +14184,7 @@
       </c>
       <c r="D249" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5268357543150044</v>
+        <v>-0.25221981291233642</v>
       </c>
       <c r="E249" s="20">
         <f t="shared" si="2"/>
@@ -12328,11 +14192,11 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0519362018729592E-2</v>
+        <v>-5.0845173134042038E-3</v>
       </c>
       <c r="G249" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25178097354254436</v>
+        <v>0.50646893594441134</v>
       </c>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -12364,7 +14228,7 @@
       </c>
       <c r="D250" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1996101120235545</v>
+        <v>-1.328535378350123</v>
       </c>
       <c r="E250" s="20">
         <f t="shared" si="2"/>
@@ -12372,11 +14236,11 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4011948983494038E-2</v>
+        <v>-2.6610429836488297E-2</v>
       </c>
       <c r="G250" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22776902455905032</v>
+        <v>0.47985850610792302</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -12408,7 +14272,7 @@
       </c>
       <c r="D251" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.76149118540935623</v>
+        <v>-1.2299428791062061</v>
       </c>
       <c r="E251" s="20">
         <f t="shared" si="2"/>
@@ -12416,11 +14280,11 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.5247687161093718E-2</v>
+        <v>-2.4636492759073765E-2</v>
       </c>
       <c r="G251" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21252133739795659</v>
+        <v>0.45522201334884926</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -12452,7 +14316,7 @@
       </c>
       <c r="D252" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68033826427377098</v>
+        <v>1.3765911988022548</v>
       </c>
       <c r="E252" s="20">
         <f t="shared" si="2"/>
@@ -12460,11 +14324,11 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3623432841349769E-2</v>
+        <v>2.7496121073037342E-2</v>
       </c>
       <c r="G252" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19889790455660683</v>
+        <v>0.4827181344218866</v>
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -12496,7 +14360,7 @@
       </c>
       <c r="D253" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47698018421073229</v>
+        <v>0.10365004538348764</v>
       </c>
       <c r="E253" s="20">
         <f t="shared" si="2"/>
@@ -12504,11 +14368,11 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5240046328768733E-3</v>
+        <v>2.0351414461464677E-3</v>
       </c>
       <c r="G253" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2084219091894837</v>
+        <v>0.48475327586803307</v>
       </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -12540,7 +14404,7 @@
       </c>
       <c r="D254" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16861451599454941</v>
+        <v>0.78564178526410333</v>
       </c>
       <c r="E254" s="20">
         <f t="shared" si="2"/>
@@ -12548,11 +14412,11 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.3886363519842811E-3</v>
+        <v>1.5674816624821827E-2</v>
       </c>
       <c r="G254" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20503327283749942</v>
+        <v>0.50042809249285491</v>
       </c>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -12584,7 +14448,7 @@
       </c>
       <c r="D255" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46643791846030819</v>
+        <v>-1.6464330966314684</v>
       </c>
       <c r="E255" s="20">
         <f t="shared" si="2"/>
@@ -12592,11 +14456,11 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3126781125130263E-3</v>
+        <v>-3.2967910410471944E-2</v>
       </c>
       <c r="G255" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21434595095001244</v>
+        <v>0.46746018208238299</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -12628,7 +14492,7 @@
       </c>
       <c r="D256" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4995721060454303</v>
+        <v>-0.31052087588161809</v>
       </c>
       <c r="E256" s="20">
         <f t="shared" si="2"/>
@@ -12636,11 +14500,11 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9974631458088996E-2</v>
+        <v>-6.2470802770113725E-3</v>
       </c>
       <c r="G256" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26432058240810141</v>
+        <v>0.46121310180537162</v>
       </c>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -12672,7 +14536,7 @@
       </c>
       <c r="D257" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.45399861856932855</v>
+        <v>-2.1491535991859956</v>
       </c>
       <c r="E257" s="20">
         <f t="shared" si="2"/>
@@ -12680,11 +14544,11 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.1007026131440689E-3</v>
+        <v>-4.301924477601838E-2</v>
       </c>
       <c r="G257" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25521987979495736</v>
+        <v>0.41819385702935324</v>
       </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -12716,7 +14580,7 @@
       </c>
       <c r="D258" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3645621709756617</v>
+        <v>-0.49969422706345751</v>
       </c>
       <c r="E258" s="20">
         <f t="shared" si="2"/>
@@ -12724,11 +14588,11 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7271226958352844E-2</v>
+        <v>-1.0026683275153806E-2</v>
       </c>
       <c r="G258" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28249110675331018</v>
+        <v>0.40816717375419942</v>
       </c>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -12760,7 +14624,7 @@
       </c>
       <c r="D259" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17793585946410156</v>
+        <v>-0.31250927680088492</v>
       </c>
       <c r="E259" s="20">
         <f t="shared" si="2"/>
@@ -12768,11 +14632,11 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.5808725702038595E-3</v>
+        <v>-6.2821978633709691E-3</v>
       </c>
       <c r="G259" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27891023418310634</v>
+        <v>0.40188497589082844</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -12804,7 +14668,7 @@
       </c>
       <c r="D260" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7133398552797916E-2</v>
+        <v>0.11740620056788165</v>
       </c>
       <c r="E260" s="20">
         <f t="shared" si="2"/>
@@ -12812,11 +14676,11 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.207934428847343E-4</v>
+        <v>2.3166044054054114E-3</v>
       </c>
       <c r="G260" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27923102762599106</v>
+        <v>0.40420158029623388</v>
       </c>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -12848,7 +14712,7 @@
       </c>
       <c r="D261" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31689264914414939</v>
+        <v>-0.76297745942882256</v>
       </c>
       <c r="E261" s="20">
         <f t="shared" si="2"/>
@@ -12856,11 +14720,11 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.315953294441734E-3</v>
+        <v>-1.5291250488991843E-2</v>
       </c>
       <c r="G261" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28554698092043279</v>
+        <v>0.38891032980724205</v>
       </c>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
@@ -12892,7 +14756,7 @@
       </c>
       <c r="D262" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0165227117404514</v>
+        <v>1.0916962063565261</v>
       </c>
       <c r="E262" s="20">
         <f t="shared" si="2"/>
@@ -12900,11 +14764,11 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.035284929213612E-2</v>
+        <v>2.1803422140478975E-2</v>
       </c>
       <c r="G262" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26519413162829669</v>
+        <v>0.41071375194772103</v>
       </c>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
@@ -12936,7 +14800,7 @@
       </c>
       <c r="D263" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24049043854499064</v>
+        <v>0.26611896087749815</v>
       </c>
       <c r="E263" s="20">
         <f t="shared" si="2"/>
@@ -12944,11 +14808,11 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7890100154779859E-3</v>
+        <v>5.2901671585736708E-3</v>
       </c>
       <c r="G263" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26998314164377468</v>
+        <v>0.4160039191062947</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -12980,7 +14844,7 @@
       </c>
       <c r="D264" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20471667098341845</v>
+        <v>2.0673516839630281E-2</v>
       </c>
       <c r="E264" s="20">
         <f t="shared" si="2"/>
@@ -12988,11 +14852,11 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.1155077837188615E-3</v>
+        <v>3.8084336274505308E-4</v>
       </c>
       <c r="G264" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2658676338600558</v>
+        <v>0.41638476246903977</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -13024,7 +14888,7 @@
       </c>
       <c r="D265" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0352384325615405</v>
+        <v>1.0322343137214696</v>
       </c>
       <c r="E265" s="20">
         <f t="shared" si="2"/>
@@ -13032,11 +14896,11 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>2.068391707210453E-2</v>
+        <v>2.0612029430314174E-2</v>
       </c>
       <c r="G265" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28655155093216034</v>
+        <v>0.43699679189935392</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -13068,7 +14932,7 @@
       </c>
       <c r="D266" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.93673372719234904</v>
+        <v>0.78509365202199</v>
       </c>
       <c r="E266" s="20">
         <f t="shared" si="2"/>
@@ -13076,11 +14940,11 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8757148390978914E-2</v>
+        <v>1.5667599566565341E-2</v>
       </c>
       <c r="G266" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26779440254118142</v>
+        <v>0.45266439146591925</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -13112,7 +14976,7 @@
       </c>
       <c r="D267" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1544559272364486</v>
+        <v>-0.99116788674996836</v>
       </c>
       <c r="E267" s="20">
         <f t="shared" si="2"/>
@@ -13120,11 +14984,11 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0681158464904482E-3</v>
+        <v>-1.9858860040212381E-2</v>
       </c>
       <c r="G267" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27086251838767189</v>
+        <v>0.43280553142570688</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -13156,7 +15020,7 @@
       </c>
       <c r="D268" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50968609637326534</v>
+        <v>-0.29400647331643237</v>
       </c>
       <c r="E268" s="20">
         <f t="shared" si="2"/>
@@ -13164,11 +15028,11 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.021496526224081E-2</v>
+        <v>-5.914074213891448E-3</v>
       </c>
       <c r="G268" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26064755312543109</v>
+        <v>0.42689145721181543</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
